--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -21,11 +21,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -44,17 +44,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -624,6 +625,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hebreos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Hebrews</t>
@@ -1097,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2810,14 +2814,14 @@
       <c r="D59" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>0</v>
+      <c r="E59" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>13</v>
@@ -2834,7 +2838,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>129</v>
@@ -2843,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>5</v>
@@ -2863,7 +2867,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>129</v>
@@ -2872,10 +2876,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>5</v>
@@ -2892,7 +2896,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>129</v>
@@ -2901,10 +2905,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>3</v>
@@ -2921,7 +2925,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>129</v>
@@ -2930,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>5</v>
@@ -2950,7 +2954,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>129</v>
@@ -2959,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>1</v>
@@ -2979,7 +2983,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>129</v>
@@ -2988,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>1</v>
@@ -3008,7 +3012,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>129</v>
@@ -3017,10 +3021,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>1</v>
@@ -3037,7 +3041,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>129</v>
@@ -3046,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>22</v>
@@ -3069,7 +3073,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E69" s="0" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
@@ -3082,7 +3086,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E70" s="3" t="n">
         <f aca="false">E69/E68</f>
@@ -3097,15 +3101,15 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E71" s="0" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71" s="1" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3143,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="n">
         <f aca="false">AVERAGE(Sheet1!$H$2:$H$67)</f>
@@ -3148,7 +3152,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">MEDIAN(Sheet1!$H$2:$H$67)</f>
@@ -3157,7 +3161,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">STDEV(Sheet1!$H$2:$H$67)</f>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -22,11 +22,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -45,17 +45,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -555,6 +556,9 @@
     <t xml:space="preserve">Filipenses</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Philippians</t>
   </si>
   <si>
@@ -625,9 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hebreos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Hebrews</t>
@@ -1101,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,14 +2583,14 @@
       <c r="D51" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
+      <c r="E51" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>4</v>
@@ -2606,7 +2607,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>129</v>
@@ -2615,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>4</v>
@@ -2635,7 +2636,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>129</v>
@@ -2644,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>5</v>
@@ -2664,7 +2665,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>129</v>
@@ -2673,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>3</v>
@@ -2693,7 +2694,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>129</v>
@@ -2702,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>6</v>
@@ -2722,7 +2723,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>129</v>
@@ -2731,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>4</v>
@@ -2751,7 +2752,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>129</v>
@@ -2760,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>3</v>
@@ -2780,7 +2781,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>129</v>
@@ -2789,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>1</v>
@@ -2809,13 +2810,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>186</v>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>187</v>
@@ -3077,11 +3078,11 @@
       </c>
       <c r="E69" s="0" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" s="1" t="n">
         <f aca="false">SUMIF(E2:E67,1,H2:H67)+75</f>
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,13 +3091,13 @@
       </c>
       <c r="E70" s="3" t="n">
         <f aca="false">E69/E68</f>
-        <v>0.681818181818182</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="n">
         <f aca="false">H69/H68</f>
-        <v>0.724137931034483</v>
+        <v>0.735071488645921</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,11 +3106,11 @@
       </c>
       <c r="E71" s="0" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71" s="1" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -23,11 +23,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -46,17 +46,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1102,7 +1103,7 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -2583,7 +2584,7 @@
       <c r="D51" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F51" s="0" t="s">

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -24,12 +24,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -47,17 +47,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -368,6 +370,9 @@
     <t xml:space="preserve">Amós</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amos</t>
   </si>
   <si>
@@ -555,9 +560,6 @@
   </si>
   <si>
     <t xml:space="preserve">Filipenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Philippians</t>
@@ -736,7 +738,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -835,6 +837,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -987,9 +996,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -998,6 +1011,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1103,8 +1132,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I72" activeCellId="0" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1113,7 +1142,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.15"/>
@@ -1125,28 +1154,28 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1163,7 +1192,7 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1192,7 +1221,7 @@
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -1221,7 +1250,7 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -1250,7 +1279,7 @@
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -1279,7 +1308,7 @@
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
@@ -1308,7 +1337,7 @@
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -1337,7 +1366,7 @@
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -1366,7 +1395,7 @@
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
@@ -1395,7 +1424,7 @@
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
@@ -1424,7 +1453,7 @@
       <c r="D11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
@@ -1453,7 +1482,7 @@
       <c r="D12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
@@ -1482,7 +1511,7 @@
       <c r="D13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
@@ -1511,7 +1540,7 @@
       <c r="D14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
@@ -1540,7 +1569,7 @@
       <c r="D15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
@@ -1569,7 +1598,7 @@
       <c r="D16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
@@ -1598,7 +1627,7 @@
       <c r="D17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
@@ -1627,7 +1656,7 @@
       <c r="D18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
@@ -1656,7 +1685,7 @@
       <c r="D19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
@@ -1685,7 +1714,7 @@
       <c r="D20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
@@ -1714,7 +1743,7 @@
       <c r="D21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
@@ -1743,7 +1772,7 @@
       <c r="D22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
@@ -1772,7 +1801,7 @@
       <c r="D23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
@@ -1801,7 +1830,7 @@
       <c r="D24" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
@@ -1830,7 +1859,7 @@
       <c r="D25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
@@ -1859,7 +1888,7 @@
       <c r="D26" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
@@ -1888,7 +1917,7 @@
       <c r="D27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
@@ -1917,7 +1946,7 @@
       <c r="D28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
@@ -1946,7 +1975,7 @@
       <c r="D29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="0" t="s">
@@ -1975,7 +2004,7 @@
       <c r="D30" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="0" t="s">
@@ -2004,14 +2033,14 @@
       <c r="D31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
+      <c r="E31" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>9</v>
@@ -2028,19 +2057,19 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -2057,19 +2086,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>4</v>
@@ -2086,19 +2115,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>7</v>
@@ -2115,19 +2144,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3</v>
@@ -2144,19 +2173,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
@@ -2173,19 +2202,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3</v>
@@ -2202,19 +2231,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>2</v>
@@ -2231,19 +2260,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>14</v>
@@ -2260,19 +2289,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
@@ -2289,25 +2318,25 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,25 +2347,25 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,25 +2376,25 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,25 +2405,25 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,25 +2434,25 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,25 +2463,25 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,25 +2492,25 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,25 +2521,25 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,25 +2550,25 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,25 +2579,25 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,13 +2608,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>163</v>
@@ -2597,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,9 +2640,9 @@
         <v>165</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="0" t="s">
@@ -2626,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,9 +2669,9 @@
         <v>168</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F53" s="0" t="s">
@@ -2655,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,9 +2698,9 @@
         <v>171</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F54" s="0" t="s">
@@ -2684,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,9 +2727,9 @@
         <v>174</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="0" t="s">
@@ -2713,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,9 +2756,9 @@
         <v>177</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="0" t="s">
@@ -2742,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,9 +2785,9 @@
         <v>180</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="0" t="s">
@@ -2771,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,9 +2814,9 @@
         <v>183</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
@@ -2800,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,9 +2843,9 @@
         <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="0" t="s">
@@ -2829,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,9 +2872,9 @@
         <v>189</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
@@ -2858,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,9 +2901,9 @@
         <v>192</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="s">
@@ -2887,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,9 +2930,9 @@
         <v>195</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
@@ -2916,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,9 +2959,9 @@
         <v>198</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
@@ -2945,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,9 +2988,9 @@
         <v>201</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
@@ -2974,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,9 +3017,9 @@
         <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="0" t="s">
@@ -3003,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,9 +3046,9 @@
         <v>207</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="0" t="s">
@@ -3032,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,9 +3075,9 @@
         <v>210</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="0" t="s">
@@ -3065,10 +3094,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="4" t="n">
         <f aca="false">SUM(H2:H67)</f>
         <v>1189</v>
       </c>
@@ -3077,41 +3106,41 @@
       <c r="D69" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="4" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
-        <v>46</v>
-      </c>
-      <c r="H69" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="H69" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,1,H2:H67)+75</f>
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="6" t="n">
         <f aca="false">E69/E68</f>
-        <v>0.696969696969697</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="n">
+        <v>0.712121212121212</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6" t="n">
         <f aca="false">H69/H68</f>
-        <v>0.735071488645921</v>
+        <v>0.738435660218671</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="4" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>19</v>
-      </c>
-      <c r="H71" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H71" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3176,7 @@
       <c r="A2" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="8" t="n">
         <f aca="false">AVERAGE(Sheet1!$H$2:$H$67)</f>
         <v>18.0151515151515</v>
       </c>
@@ -3156,7 +3185,7 @@
       <c r="A3" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="8" t="n">
         <f aca="false">MEDIAN(Sheet1!$H$2:$H$67)</f>
         <v>12</v>
       </c>
@@ -3165,7 +3194,7 @@
       <c r="A4" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="8" t="n">
         <f aca="false">STDEV(Sheet1!$H$2:$H$67)</f>
         <v>22.2119111665115</v>
       </c>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -26,13 +26,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -49,17 +49,20 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -127,6 +130,9 @@
     <t xml:space="preserve">Levítico</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leviticus</t>
   </si>
   <si>
@@ -368,9 +374,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amós</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Amos</t>
@@ -1132,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I72" activeCellId="0" sqref="I72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,20 +1253,20 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>27</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
@@ -1283,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>36</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>10</v>
@@ -1312,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
@@ -1341,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>24</v>
@@ -1361,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
@@ -1370,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>21</v>
@@ -1390,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
@@ -1399,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>4</v>
@@ -1419,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>10</v>
@@ -1428,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>31</v>
@@ -1448,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>10</v>
@@ -1457,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>24</v>
@@ -1477,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>10</v>
@@ -1486,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>22</v>
@@ -1506,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>10</v>
@@ -1515,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -1535,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>10</v>
@@ -1544,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>29</v>
@@ -1564,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>10</v>
@@ -1573,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>36</v>
@@ -1593,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>10</v>
@@ -1602,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>10</v>
@@ -1622,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>10</v>
@@ -1631,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>13</v>
@@ -1651,7 +1654,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>10</v>
@@ -1660,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>10</v>
@@ -1680,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>10</v>
@@ -1689,16 +1692,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +1712,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>10</v>
@@ -1718,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>10</v>
@@ -1747,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>10</v>
@@ -1776,16 +1779,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1799,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>10</v>
@@ -1805,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,7 +1828,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>10</v>
@@ -1834,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>10</v>
@@ -1863,16 +1866,16 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>10</v>
@@ -1892,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,7 +1915,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>10</v>
@@ -1921,16 +1924,16 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +1944,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>10</v>
@@ -1950,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>10</v>
@@ -1979,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,7 +2002,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>10</v>
@@ -2008,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,13 +2031,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>99</v>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>100</v>
@@ -2046,7 +2049,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,7 +2281,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,7 +3093,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,11 +3111,11 @@
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H69" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,1,H2:H67)+75</f>
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,13 +3124,13 @@
       </c>
       <c r="E70" s="6" t="n">
         <f aca="false">E69/E68</f>
-        <v>0.712121212121212</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6" t="n">
         <f aca="false">H69/H68</f>
-        <v>0.738435660218671</v>
+        <v>0.746005046257359</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,11 +3139,11 @@
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -29,11 +29,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -52,17 +52,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -130,211 +131,211 @@
     <t xml:space="preserve">Levítico</t>
   </si>
   <si>
+    <t xml:space="preserve">Leviticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Números</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuteronomio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuteronomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esdras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psalms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proverbios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proverbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclesiastés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecclesiastes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song of Solomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apocalyptic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prophecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamentaciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leviticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Números</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuteronomio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuteronomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jueces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esdras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psalms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverbios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclesiastés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecclesiastes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Song of Solomon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apocalyptic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prophecy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamentaciones</t>
   </si>
   <si>
     <t xml:space="preserve">Lamentations</t>
@@ -1135,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1253,20 +1254,20 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>27</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,25 +1278,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>36</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,25 +1307,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,19 +1336,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>24</v>
@@ -1364,19 +1365,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>21</v>
@@ -1393,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>4</v>
@@ -1422,19 +1423,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>31</v>
@@ -1451,19 +1452,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>24</v>
@@ -1480,19 +1481,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>22</v>
@@ -1509,19 +1510,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -1538,19 +1539,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>29</v>
@@ -1567,19 +1568,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>36</v>
@@ -1596,19 +1597,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>10</v>
@@ -1625,19 +1626,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>13</v>
@@ -1654,19 +1655,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>10</v>
@@ -1683,25 +1684,25 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,25 +1713,25 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,25 +1742,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,25 +1771,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,25 +1800,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,25 +1829,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,25 +1858,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,13 +1887,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>87</v>
@@ -1904,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +1934,7 @@
         <v>48</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +2311,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,7 +3094,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,11 +3112,11 @@
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,1,H2:H67)+75</f>
-        <v>887</v>
+        <v>914</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,13 +3125,13 @@
       </c>
       <c r="E70" s="6" t="n">
         <f aca="false">E69/E68</f>
-        <v>0.727272727272727</v>
+        <v>0.742424242424242</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6" t="n">
         <f aca="false">H69/H68</f>
-        <v>0.746005046257359</v>
+        <v>0.768713204373423</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,11 +3140,11 @@
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -30,12 +30,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -53,17 +53,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -335,217 +337,217 @@
     <t xml:space="preserve">Lamentaciones</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezequiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezekiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oseas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obadiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miqueas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahúm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habacuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habakkuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofonías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zephaniah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haggai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacarías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zechariah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaquías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gospel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hechos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Corintios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Corinthians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Corintios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Corinthians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gálatas</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamentations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezequiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezekiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oseas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hosea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amós</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obadiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miqueas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahúm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habacuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habakkuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofonías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zephaniah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haggai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacarías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zechariah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaquías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mateo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gospel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hechos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Corintios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Corinthians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Corintios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Corinthians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gálatas</t>
   </si>
   <si>
     <t xml:space="preserve">Galatians</t>
@@ -1136,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,14 +1894,14 @@
       <c r="D26" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>5</v>
@@ -1916,19 +1918,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>48</v>
@@ -1945,19 +1947,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>12</v>
@@ -1974,19 +1976,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>14</v>
@@ -2003,19 +2005,19 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>3</v>
@@ -2032,19 +2034,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>9</v>
@@ -2061,19 +2063,19 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -2090,19 +2092,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>4</v>
@@ -2119,19 +2121,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="G34" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>7</v>
@@ -2148,19 +2150,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3</v>
@@ -2177,19 +2179,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
@@ -2206,19 +2208,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3</v>
@@ -2235,19 +2237,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="s">
+      <c r="G38" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>2</v>
@@ -2264,19 +2266,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="0" t="s">
+      <c r="G39" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>14</v>
@@ -2293,19 +2295,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="G40" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
@@ -2322,25 +2324,25 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="G41" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,25 +2353,25 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="G42" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,25 +2382,25 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="G43" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,25 +2411,25 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="G44" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,25 +2440,25 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="G45" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,25 +2469,25 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="G46" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,25 +2498,25 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="G47" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,25 +2527,25 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="G48" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,13 +2556,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>157</v>
@@ -2572,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,7 +2588,7 @@
         <v>159</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>0</v>
@@ -2601,7 +2603,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,7 +2617,7 @@
         <v>162</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>1</v>
@@ -2630,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2646,7 @@
         <v>165</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>0</v>
@@ -2659,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2675,7 @@
         <v>168</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2704,7 @@
         <v>171</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>0</v>
@@ -2717,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,7 +2733,7 @@
         <v>174</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>1</v>
@@ -2746,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,7 +2762,7 @@
         <v>177</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>1</v>
@@ -2775,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2791,7 @@
         <v>180</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>1</v>
@@ -2804,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +2820,7 @@
         <v>183</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>1</v>
@@ -2833,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,7 +2849,7 @@
         <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>1</v>
@@ -2862,7 +2864,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,7 +2878,7 @@
         <v>189</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>1</v>
@@ -2891,7 +2893,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2907,7 @@
         <v>192</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>1</v>
@@ -2920,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2936,7 @@
         <v>195</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>1</v>
@@ -2949,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +2965,7 @@
         <v>198</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>1</v>
@@ -2978,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,7 +2994,7 @@
         <v>201</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>1</v>
@@ -3007,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,7 +3023,7 @@
         <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>1</v>
@@ -3036,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,7 +3052,7 @@
         <v>207</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>1</v>
@@ -3065,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,7 +3081,7 @@
         <v>210</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>1</v>
@@ -3112,11 +3114,11 @@
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,1,H2:H67)+75</f>
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,13 +3127,13 @@
       </c>
       <c r="E70" s="6" t="n">
         <f aca="false">E69/E68</f>
-        <v>0.742424242424242</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6" t="n">
         <f aca="false">H69/H68</f>
-        <v>0.768713204373423</v>
+        <v>0.772918418839361</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,11 +3142,11 @@
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -32,11 +32,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -55,17 +55,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1138,8 +1139,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -33,11 +33,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -56,17 +56,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -203,6 +204,9 @@
     <t xml:space="preserve">1 Reyes</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Kings</t>
   </si>
   <si>
@@ -546,9 +550,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gálatas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Galatians</t>
@@ -1139,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1489,14 +1490,14 @@
       <c r="D12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>22</v>
@@ -1513,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>10</v>
@@ -1522,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25</v>
@@ -1542,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>10</v>
@@ -1551,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>29</v>
@@ -1571,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>10</v>
@@ -1580,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>36</v>
@@ -1600,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>10</v>
@@ -1609,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>10</v>
@@ -1629,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>10</v>
@@ -1638,10 +1639,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>13</v>
@@ -1658,7 +1659,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>10</v>
@@ -1667,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>10</v>
@@ -1687,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>10</v>
@@ -1696,16 +1697,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>10</v>
@@ -1725,16 +1726,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>10</v>
@@ -1754,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>10</v>
@@ -1783,16 +1784,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1804,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>10</v>
@@ -1812,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>10</v>
@@ -1841,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>10</v>
@@ -1870,16 +1871,16 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1891,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>10</v>
@@ -1899,16 +1900,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,7 +1920,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>10</v>
@@ -1928,16 +1929,16 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,7 +1949,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>10</v>
@@ -1957,16 +1958,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>10</v>
@@ -1986,16 +1987,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2007,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>10</v>
@@ -2015,16 +2016,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>10</v>
@@ -2044,16 +2045,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,7 +2065,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>10</v>
@@ -2073,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2094,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>10</v>
@@ -2102,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>4</v>
@@ -2122,7 +2123,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>10</v>
@@ -2131,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2152,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>10</v>
@@ -2160,16 +2161,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,7 +2181,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>10</v>
@@ -2189,16 +2190,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +2210,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>10</v>
@@ -2218,16 +2219,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,7 +2239,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>10</v>
@@ -2247,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>10</v>
@@ -2276,16 +2277,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>10</v>
@@ -2305,16 +2306,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,25 +2326,25 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,25 +2355,25 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,25 +2384,25 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,25 +2413,25 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,25 +2442,25 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,25 +2471,25 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,25 +2500,25 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,25 +2529,25 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,13 +2558,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>157</v>
@@ -2575,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +2590,7 @@
         <v>159</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>0</v>
@@ -2604,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,7 +2619,7 @@
         <v>162</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>1</v>
@@ -2633,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,7 +2648,7 @@
         <v>165</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>0</v>
@@ -2662,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2677,7 @@
         <v>168</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>0</v>
@@ -2691,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2706,7 @@
         <v>171</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>0</v>
@@ -2720,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +2735,7 @@
         <v>174</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>1</v>
@@ -2749,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,7 +2764,7 @@
         <v>177</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>1</v>
@@ -2778,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,7 +2793,7 @@
         <v>180</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>1</v>
@@ -2807,7 +2808,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,7 +2822,7 @@
         <v>183</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>1</v>
@@ -2836,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +2851,7 @@
         <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>1</v>
@@ -2865,7 +2866,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,7 +2880,7 @@
         <v>189</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>1</v>
@@ -2894,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2909,7 @@
         <v>192</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>1</v>
@@ -2923,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,7 +2938,7 @@
         <v>195</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>1</v>
@@ -2952,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2967,7 @@
         <v>198</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>1</v>
@@ -2981,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,7 +2996,7 @@
         <v>201</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>1</v>
@@ -3010,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,7 +3025,7 @@
         <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>1</v>
@@ -3039,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3054,7 @@
         <v>207</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>1</v>
@@ -3068,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,7 +3083,7 @@
         <v>210</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>1</v>
@@ -3097,7 +3098,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,11 +3116,11 @@
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">COUNTIF(E2:E67,1)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,1,H2:H67)+75</f>
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,13 +3129,13 @@
       </c>
       <c r="E70" s="6" t="n">
         <f aca="false">E69/E68</f>
-        <v>0.757575757575758</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6" t="n">
         <f aca="false">H69/H68</f>
-        <v>0.772918418839361</v>
+        <v>0.777964676198486</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,11 +3144,11 @@
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">COUNTIF(E2:E69,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" s="5" t="n">
         <f aca="false">SUMIF(E2:E67,0,H2:H67)+75</f>
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -34,11 +34,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
@@ -57,17 +57,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$B$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1140,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">1 Kings</t>
@@ -1054,7 +1051,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1481,14 +1478,14 @@
       <c r="E12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>22</v>
@@ -1508,19 +1505,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1540,19 +1537,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1572,19 +1569,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1604,19 +1601,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1642,19 +1639,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1680,19 +1677,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1712,25 +1709,25 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1750,25 +1747,25 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9268848483871</v>
@@ -1788,25 +1785,25 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,25 +1817,25 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1858,25 +1855,25 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,25 +1887,25 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,25 +1919,25 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.1848747980769</v>
@@ -1960,25 +1957,25 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.71697948</v>
@@ -1998,25 +1995,25 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.595325428</v>
@@ -2036,25 +2033,25 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>29.8858247285714</v>
@@ -2074,25 +2071,25 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -2112,25 +2109,25 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8192574909091</v>
@@ -2150,25 +2147,25 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.806583025</v>
@@ -2188,25 +2185,25 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6097782777778</v>
@@ -2226,19 +2223,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2264,25 +2261,25 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0309007307692</v>
@@ -2302,25 +2299,25 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2340,25 +2337,25 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2378,25 +2375,25 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.59335771</v>
@@ -2416,25 +2413,25 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2454,25 +2451,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="H39" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4826757615385</v>
@@ -2492,25 +2489,25 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2530,25 +2527,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3827941576923</v>
@@ -2568,25 +2565,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2606,25 +2603,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2644,25 +2641,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="H44" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2682,25 +2679,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="H45" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1376530137931</v>
@@ -2720,25 +2717,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="H46" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>36.4487784833333</v>
@@ -2758,25 +2755,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2796,25 +2793,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="H48" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2834,25 +2831,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="H49" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2872,25 +2869,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,25 +2901,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="s">
+      <c r="H51" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2942,25 +2939,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="H52" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,25 +2971,25 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="H53" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,25 +3003,25 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="0" t="s">
+      <c r="H54" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,25 +3035,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -3076,25 +3073,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="s">
+      <c r="H56" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -3114,25 +3111,25 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="s">
+      <c r="H57" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -3152,25 +3149,25 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="H58" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,25 +3181,25 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0" t="s">
+      <c r="H59" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.4690138857143</v>
@@ -3222,25 +3219,25 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="H60" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,25 +3251,25 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0" t="s">
+      <c r="H61" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>36.0484985</v>
@@ -3292,25 +3289,25 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="s">
+      <c r="H62" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,25 +3321,25 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="H63" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,25 +3353,25 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0" t="s">
+      <c r="H64" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,25 +3385,25 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="0" t="s">
+      <c r="H65" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>208</v>
-      </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,25 +3417,25 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3458,25 +3455,25 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0" t="s">
+      <c r="H67" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.9747663545455</v>
@@ -3501,7 +3498,7 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>51</v>
@@ -3515,7 +3512,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0.772727272727273</v>
@@ -3529,7 +3526,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>14</v>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 Tesalonicenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">1 Thessalonians</t>
@@ -946,13 +949,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2960,7 +2967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2976,14 +2983,14 @@
       <c r="E53" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>0</v>
+      <c r="F53" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
@@ -2992,7 +2999,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -3003,19 +3010,19 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>0</v>
+      <c r="F54" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -3035,7 +3042,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>131</v>
@@ -3044,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
@@ -3073,7 +3080,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>131</v>
@@ -3082,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
@@ -3111,7 +3118,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>131</v>
@@ -3120,10 +3127,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
@@ -3149,7 +3156,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>131</v>
@@ -3158,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
@@ -3181,7 +3188,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>131</v>
@@ -3190,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
@@ -3219,7 +3226,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>131</v>
@@ -3228,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
@@ -3251,7 +3258,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>131</v>
@@ -3260,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
@@ -3289,7 +3296,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>131</v>
@@ -3298,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
@@ -3321,7 +3328,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>131</v>
@@ -3330,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
@@ -3353,7 +3360,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>131</v>
@@ -3362,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
@@ -3385,7 +3392,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>131</v>
@@ -3394,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
@@ -3417,7 +3424,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>131</v>
@@ -3426,10 +3433,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
@@ -3455,7 +3462,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>131</v>
@@ -3464,10 +3471,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
@@ -3498,7 +3505,7 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>51</v>
@@ -3512,7 +3519,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0.772727272727273</v>
@@ -3526,7 +3533,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>14</v>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -1057,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3500,7 +3500,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -3508,13 +3508,15 @@
         <v>215</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>51</v>
+        <f aca="false">SUMIF(F2:F67,1)</f>
+        <v>52</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -3522,10 +3524,12 @@
         <v>216</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.772727272727273</v>
+        <f aca="false">F69/F68</f>
+        <v>0.787878787878788</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.777964676198486</v>
+        <f aca="false">I69/I68</f>
+        <v>0.733389402859546</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,6 +10,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -262,6 +266,9 @@
     <t xml:space="preserve">Isaías</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isaiah</t>
   </si>
   <si>
@@ -530,9 +537,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 Tesalonicenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">1 Thessalonians</t>
@@ -1050,6 +1054,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1057,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,7 +1891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1899,20 +1907,20 @@
       <c r="E24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1934,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>12</v>
@@ -1935,16 +1943,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.1848747980769</v>
@@ -1964,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>12</v>
@@ -1973,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
@@ -2002,7 +2010,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>12</v>
@@ -2011,16 +2019,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.595325428</v>
@@ -2040,7 +2048,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>12</v>
@@ -2049,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>29.8858247285714</v>
@@ -2078,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>12</v>
@@ -2087,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -2116,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>12</v>
@@ -2125,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8192574909091</v>
@@ -2154,7 +2162,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>12</v>
@@ -2163,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.806583025</v>
@@ -2192,7 +2200,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>12</v>
@@ -2201,16 +2209,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6097782777778</v>
@@ -2230,7 +2238,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>12</v>
@@ -2239,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2268,7 +2276,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>12</v>
@@ -2277,16 +2285,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0309007307692</v>
@@ -2306,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>12</v>
@@ -2315,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2344,7 +2352,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>12</v>
@@ -2353,16 +2361,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2382,7 +2390,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>12</v>
@@ -2391,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.59335771</v>
@@ -2420,7 +2428,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>12</v>
@@ -2429,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2458,7 +2466,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>12</v>
@@ -2467,16 +2475,16 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4826757615385</v>
@@ -2496,7 +2504,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>12</v>
@@ -2505,16 +2513,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2534,25 +2542,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3827941576923</v>
@@ -2572,25 +2580,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2610,25 +2618,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2648,25 +2656,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2686,25 +2694,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1376530137931</v>
@@ -2724,25 +2732,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>36.4487784833333</v>
@@ -2762,25 +2770,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2800,25 +2808,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2838,25 +2846,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2876,25 +2884,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,25 +2916,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2946,25 +2954,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,13 +2986,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>171</v>
@@ -2996,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,10 +3021,10 @@
         <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>174</v>
@@ -3028,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,7 +3053,7 @@
         <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
@@ -3060,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -3083,7 +3091,7 @@
         <v>179</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
@@ -3098,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -3121,7 +3129,7 @@
         <v>182</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -3136,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -3159,7 +3167,7 @@
         <v>185</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -3174,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,7 +3199,7 @@
         <v>188</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -3206,7 +3214,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.4690138857143</v>
@@ -3229,7 +3237,7 @@
         <v>191</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
@@ -3244,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3269,7 @@
         <v>194</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
@@ -3276,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>36.0484985</v>
@@ -3299,7 +3307,7 @@
         <v>197</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
@@ -3314,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3339,7 @@
         <v>200</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
@@ -3346,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3371,7 @@
         <v>203</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
@@ -3378,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,7 +3403,7 @@
         <v>206</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
@@ -3410,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +3435,7 @@
         <v>209</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
@@ -3442,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3465,7 +3473,7 @@
         <v>212</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -3480,7 +3488,7 @@
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.9747663545455</v>
@@ -3509,11 +3517,11 @@
       </c>
       <c r="F69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,11 +3533,11 @@
       </c>
       <c r="F70" s="0" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.787878787878788</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I70" s="0" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.733389402859546</v>
+        <v>0.740117746005046</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,6 +3555,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3554,5 +3563,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,10 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -684,8 +680,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -953,7 +950,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -964,6 +961,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1054,10 +1055,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1065,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1179,10 +1176,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>30.3698383</v>
+        <v>30.4699688976191</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>33.7367165076923</v>
+        <v>33.8432804079365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,6 +1505,12 @@
       <c r="J12" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <v>31.8670741222222</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>35.1852309356481</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1783,10 +1786,10 @@
         <v>69</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>30.9268848483871</v>
+        <v>30.9532842802083</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>35.4378564161291</v>
+        <v>35.4313175003472</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,10 +1958,10 @@
         <v>87</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>32.1848747980769</v>
+        <v>32.340919558642</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>35.5432907730769</v>
+        <v>35.4158287465021</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,10 +1996,10 @@
         <v>69</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>31.71697948</v>
+        <v>31.7260940111112</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>35.19855448</v>
+        <v>35.2035639185185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,10 +2034,10 @@
         <v>87</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>31.595325428</v>
+        <v>31.5987830993464</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>35.46590773</v>
+        <v>35.4612548551198</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +2072,10 @@
         <v>87</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>29.8858247285714</v>
+        <v>30.0115475244445</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>37.0924016</v>
+        <v>36.9681489007407</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,10 +2148,10 @@
         <v>87</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>31.8192574909091</v>
+        <v>31.8152915888889</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>33.2236226818182</v>
+        <v>33.3907050509259</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,10 +2186,10 @@
         <v>87</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>31.806583025</v>
+        <v>31.8051863706667</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>35.0503126916667</v>
+        <v>35.0574446284444</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,10 +2224,10 @@
         <v>87</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>31.6097782777778</v>
+        <v>31.6259671166667</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>35.2083436222222</v>
+        <v>35.2103703711111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,10 +2300,10 @@
         <v>87</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>32.0309007307692</v>
+        <v>32.0123840119048</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>36.3155120384615</v>
+        <v>36.2378762579365</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,10 +2414,10 @@
         <v>87</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>30.59335771</v>
+        <v>30.7004767060606</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>35.38185619</v>
+        <v>35.3679248191919</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,10 +2490,10 @@
         <v>87</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>32.4826757615385</v>
+        <v>32.4563420913581</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>34.6678293</v>
+        <v>34.6885989967078</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,10 +2566,10 @@
         <v>135</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>32.3827941576923</v>
+        <v>32.3601598061729</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>35.0697941153846</v>
+        <v>35.0756762263374</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,10 +2718,10 @@
         <v>135</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>34.1376530137931</v>
+        <v>34.1861673694915</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>30.4890043758621</v>
+        <v>30.4976653186441</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +2756,10 @@
         <v>151</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>36.4487784833333</v>
+        <v>35.780619652381</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>22.6268803166667</v>
+        <v>24.4271275730159</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,7 +2978,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="E53" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
@@ -3006,8 +3009,14 @@
       <c r="J53" s="0" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K53" s="0" t="n">
+        <v>38.033930725</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>25.905193075</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -3023,7 +3032,7 @@
       <c r="E54" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
@@ -3217,10 +3226,10 @@
         <v>151</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>30.4690138857143</v>
+        <v>30.6318454833334</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>31.6284801</v>
+        <v>32.0784964763889</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,10 +3296,10 @@
         <v>151</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>36.0484985</v>
+        <v>34.622887888889</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>39.2791095</v>
+        <v>37.9289433703703</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,6 +3333,12 @@
       <c r="J62" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="K62" s="0" t="n">
+        <v>31.771666666667</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>35.228611111111</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -3491,13 +3506,13 @@
         <v>83</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>34.9747663545455</v>
+        <v>34.7078413805556</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>33.3589254</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33.5147325425926</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -3531,16 +3546,18 @@
       <c r="E70" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
         <v>0.818181818181818</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
         <v>0.740117746005046</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -3548,14 +3565,15 @@
         <v>217</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>14</v>
+        <f aca="false">F68*(1-F70)</f>
+        <v>12</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>392</v>
+        <f aca="false">I68*(1-I70)</f>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3563,6 +3581,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -427,7 +427,7 @@
     <t xml:space="preserve">MAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Gospel</t>
+    <t xml:space="preserve">gospel</t>
   </si>
   <si>
     <t xml:space="preserve">Marcos</t>
@@ -1062,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J67" activeCellId="0" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2572,7 +2572,7 @@
         <v>35.0756762263374</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>34.6599276315789</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>35.6911872666667</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>35.3856338214286</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -684,7 +687,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -709,164 +712,26 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -877,7 +742,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -901,61 +766,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -968,91 +785,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,11 +807,11 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J67" activeCellId="0" sqref="J67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.48"/>
   </cols>
@@ -3574,6 +3319,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3581,5 +3327,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Isaías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Isaiah</t>
@@ -808,7 +805,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1655,20 +1652,20 @@
       <c r="E24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,25 +1679,25 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.340919558642</v>
@@ -1720,19 +1717,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
@@ -1758,25 +1755,25 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.5987830993464</v>
@@ -1796,25 +1793,25 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>30.0115475244445</v>
@@ -1834,25 +1831,25 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -1872,25 +1869,25 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8152915888889</v>
@@ -1910,25 +1907,25 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.8051863706667</v>
@@ -1948,25 +1945,25 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6259671166667</v>
@@ -1986,19 +1983,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2024,25 +2021,25 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0123840119048</v>
@@ -2062,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2100,25 +2097,25 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2138,25 +2135,25 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.7004767060606</v>
@@ -2176,25 +2173,25 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2214,25 +2211,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="H39" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4563420913581</v>
@@ -2252,25 +2249,25 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2290,25 +2287,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3601598061729</v>
@@ -2328,25 +2325,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2366,25 +2363,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2404,25 +2401,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="H44" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2442,25 +2439,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="H45" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1861673694915</v>
@@ -2480,25 +2477,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="H46" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>35.780619652381</v>
@@ -2518,25 +2515,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2556,25 +2553,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="H48" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2594,25 +2591,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="H49" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2632,25 +2629,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,25 +2661,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="s">
+      <c r="H51" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2702,25 +2699,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="H52" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,25 +2731,25 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="H53" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>38.033930725</v>
@@ -2772,25 +2769,25 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="s">
+      <c r="H54" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -2842,25 +2839,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="s">
+      <c r="H56" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -2880,25 +2877,25 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="s">
+      <c r="H57" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -2918,25 +2915,25 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="H58" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,25 +2947,25 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0" t="s">
+      <c r="H59" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.6318454833334</v>
@@ -2988,25 +2985,25 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="H60" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,25 +3017,25 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0" t="s">
+      <c r="H61" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>34.622887888889</v>
@@ -3058,25 +3055,25 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="s">
+      <c r="H62" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>31.771666666667</v>
@@ -3096,25 +3093,25 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="H63" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,25 +3125,25 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0" t="s">
+      <c r="H64" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,25 +3157,25 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="0" t="s">
+      <c r="H65" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>208</v>
-      </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,25 +3189,25 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3230,25 +3227,25 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0" t="s">
+      <c r="H67" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.7078413805556</v>
@@ -3273,15 +3270,15 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>880</v>
+        <v>946</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,17 +3286,17 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.818181818181818</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.740117746005046</v>
+        <v>0.795626576955425</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,15 +3304,15 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F71" s="0" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>309</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve">Efesios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Ephesians</t>
@@ -773,8 +773,8 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -793,10 +793,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -804,13 +800,13 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1652,7 +1648,7 @@
       <c r="E24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
@@ -1666,6 +1662,12 @@
       </c>
       <c r="J24" s="0" t="s">
         <v>82</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>31.558286685034</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>36.2484380798186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,7 +2316,7 @@
         <v>35.0756762263374</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>34.6599276315789</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>35.6911872666667</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>35.3856338214286</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>37.2690598</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2634,14 +2636,14 @@
       <c r="E50" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
+      <c r="F50" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
@@ -2661,7 +2663,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>131</v>
@@ -2670,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
@@ -2699,7 +2701,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>131</v>
@@ -2708,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
@@ -2731,7 +2733,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>131</v>
@@ -2740,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
@@ -2769,7 +2771,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>131</v>
@@ -2778,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -2801,7 +2803,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>131</v>
@@ -2810,10 +2812,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
@@ -2839,7 +2841,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>131</v>
@@ -2848,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
@@ -2877,7 +2879,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>131</v>
@@ -2886,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
@@ -2915,7 +2917,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>131</v>
@@ -2924,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
@@ -2947,7 +2949,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>131</v>
@@ -2956,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
@@ -2985,7 +2987,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>131</v>
@@ -2994,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
@@ -3017,7 +3019,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>131</v>
@@ -3026,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
@@ -3055,7 +3057,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>131</v>
@@ -3064,10 +3066,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
@@ -3093,7 +3095,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>131</v>
@@ -3102,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
@@ -3125,7 +3127,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>131</v>
@@ -3134,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
@@ -3157,7 +3159,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>131</v>
@@ -3166,10 +3168,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
@@ -3189,7 +3191,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>131</v>
@@ -3198,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
@@ -3227,7 +3229,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>131</v>
@@ -3236,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
@@ -3270,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
@@ -3286,7 +3288,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
@@ -3304,7 +3306,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F71" s="0" t="n">
         <f aca="false">F68*(1-F70)</f>
@@ -3316,7 +3318,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3324,6 +3325,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t xml:space="preserve">Efesios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Ephesians</t>
@@ -801,7 +798,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2636,14 +2633,14 @@
       <c r="E50" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
@@ -2663,7 +2660,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>131</v>
@@ -2672,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
@@ -2701,7 +2698,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>131</v>
@@ -2710,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
@@ -2733,7 +2730,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>131</v>
@@ -2742,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
@@ -2771,7 +2768,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>131</v>
@@ -2780,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -2803,7 +2800,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>131</v>
@@ -2812,10 +2809,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
@@ -2841,7 +2838,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>131</v>
@@ -2850,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
@@ -2879,7 +2876,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>131</v>
@@ -2888,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
@@ -2917,7 +2914,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>131</v>
@@ -2926,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H58" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
@@ -2949,7 +2946,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>131</v>
@@ -2958,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
@@ -2987,7 +2984,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>131</v>
@@ -2996,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
@@ -3019,7 +3016,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>131</v>
@@ -3028,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
@@ -3057,7 +3054,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>131</v>
@@ -3066,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
@@ -3095,7 +3092,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>131</v>
@@ -3104,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
@@ -3127,7 +3124,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>131</v>
@@ -3136,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
@@ -3159,7 +3156,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>131</v>
@@ -3168,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
@@ -3191,7 +3188,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>131</v>
@@ -3200,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
@@ -3229,7 +3226,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>131</v>
@@ -3238,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
@@ -3272,15 +3269,15 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,17 +3285,17 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.833333333333333</v>
+        <v>0.848484848484848</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.795626576955425</v>
+        <v>0.80067283431455</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,15 +3303,15 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F71" s="0" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">2 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">2 Kings</t>
@@ -790,6 +796,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -797,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1263,14 +1273,14 @@
       <c r="E13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
+      <c r="F13" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1290,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -1299,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1322,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>12</v>
@@ -1331,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1354,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>12</v>
@@ -1363,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1392,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>12</v>
@@ -1401,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1430,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
@@ -1439,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1462,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>12</v>
@@ -1471,16 +1481,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1500,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>12</v>
@@ -1509,16 +1519,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1538,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>12</v>
@@ -1547,16 +1557,16 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>12</v>
@@ -1579,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1608,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>12</v>
@@ -1617,16 +1627,16 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>12</v>
@@ -1649,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>31.558286685034</v>
@@ -1678,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>12</v>
@@ -1687,16 +1697,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.340919558642</v>
@@ -1716,7 +1726,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>12</v>
@@ -1725,16 +1735,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -1754,7 +1764,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>12</v>
@@ -1763,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.5987830993464</v>
@@ -1792,7 +1802,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>12</v>
@@ -1801,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>30.0115475244445</v>
@@ -1830,7 +1840,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>12</v>
@@ -1839,16 +1849,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -1868,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>12</v>
@@ -1877,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8152915888889</v>
@@ -1906,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>12</v>
@@ -1915,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.8051863706667</v>
@@ -1944,7 +1954,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>12</v>
@@ -1953,16 +1963,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6259671166667</v>
@@ -1982,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>12</v>
@@ -1991,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2020,7 +2030,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>12</v>
@@ -2029,16 +2039,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0123840119048</v>
@@ -2058,7 +2068,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>12</v>
@@ -2067,16 +2077,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2096,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>12</v>
@@ -2105,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2134,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>12</v>
@@ -2143,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.7004767060606</v>
@@ -2172,7 +2182,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>12</v>
@@ -2181,16 +2191,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2210,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>12</v>
@@ -2219,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4563420913581</v>
@@ -2248,7 +2258,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>12</v>
@@ -2257,16 +2267,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2286,25 +2296,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3601598061729</v>
@@ -2324,25 +2334,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2362,25 +2372,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2400,25 +2410,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2438,25 +2448,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1861673694915</v>
@@ -2476,25 +2486,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>35.780619652381</v>
@@ -2514,25 +2524,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2552,25 +2562,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2590,25 +2600,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2617,7 +2627,7 @@
         <v>37.2690598</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2628,25 +2638,31 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>34.9773208333333</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>25.5316944</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,25 +2676,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2698,25 +2714,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,25 +2746,25 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>38.033930725</v>
@@ -2768,25 +2784,25 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,25 +2816,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -2838,25 +2854,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -2876,25 +2892,25 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -2914,25 +2930,25 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,25 +2962,25 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.6318454833334</v>
@@ -2984,25 +3000,25 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,25 +3032,25 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>34.622887888889</v>
@@ -3054,25 +3070,25 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>31.771666666667</v>
@@ -3092,25 +3108,25 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,25 +3172,25 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,25 +3204,25 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3226,25 +3242,25 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.7078413805556</v>
@@ -3253,7 +3269,7 @@
         <v>33.5147325425926</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -3268,14 +3284,16 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="0" t="n">
+      <c r="E69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
         <v>56</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
         <v>952</v>
       </c>
@@ -3284,8 +3302,8 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>215</v>
+      <c r="E70" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
@@ -3302,19 +3320,22 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="F71" s="0" t="n">
+      <c r="E71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
         <v>10</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
         <v>237</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3322,5 +3343,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -807,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -163,52 +163,52 @@
     <t xml:space="preserve">2 Reyes</t>
   </si>
   <si>
+    <t xml:space="preserve">2 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esdras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ester</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esdras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ester</t>
   </si>
   <si>
     <t xml:space="preserve">Esther</t>
@@ -807,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1273,14 +1273,14 @@
       <c r="E13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1300,19 +1300,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1332,19 +1332,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1364,19 +1364,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1402,19 +1402,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1440,13 +1440,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>62</v>
@@ -3289,13 +3289,13 @@
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>952</v>
+        <v>977</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,13 +3307,13 @@
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.848484848484848</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.80067283431455</v>
+        <v>0.821698906644239</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,13 +3325,13 @@
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -796,10 +793,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -807,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -889,7 +882,7 @@
         <v>36.7930834290323</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -927,7 +920,7 @@
         <v>33.8432804079365</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -965,7 +958,7 @@
         <v>34.112561</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -997,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1029,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1067,7 +1060,7 @@
         <v>34.9903732852459</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1105,7 +1098,7 @@
         <v>35.467874809434</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1143,7 +1136,7 @@
         <v>33.6188508333333</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1181,7 +1174,7 @@
         <v>35.0461610117647</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1219,7 +1212,7 @@
         <v>35.26103851875</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1257,7 +1250,7 @@
         <v>35.1852309356481</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1288,8 +1281,14 @@
       <c r="J13" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="0" t="n">
+        <v>31.9348416753968</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>36.3334837740741</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>37.691306715</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>37.0320123806452</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>38.3640435</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>35.4313175003472</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>35.228163</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>36.2484380798186</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>35.4158287465021</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>35.2035639185185</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>35.4612548551198</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>36.9681489007407</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>35.2501034333333</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>33.3907050509259</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>35.0574446284444</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>35.2103703711111</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>34.9298637666667</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>36.2378762579365</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>33.51317685</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>35.749305</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>35.3679248191919</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>34.1192041</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>34.6885989967078</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>35.0756762263374</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>34.6599276315789</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>35.6911872666667</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>35.3856338214286</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>30.4976653186441</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>24.4271275730159</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -2551,7 +2550,7 @@
         <v>31.5965783888889</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>29.4401928555556</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>37.2690598</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>25.5316944</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>26.5137687</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>25.905193075</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>24.5566651</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>27.4323937222222</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>24.8092691</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>32.0784964763889</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>37.9289433703703</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>35.228611111111</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>30.802498</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>33.5147325425926</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -3335,7 +3334,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3343,6 +3341,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">libro</t>
   </si>
   <si>
-    <t xml:space="preserve">testamen</t>
+    <t xml:space="preserve">testament</t>
   </si>
   <si>
     <t xml:space="preserve">encoded</t>
@@ -801,7 +801,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -94,6 +94,9 @@
     <t xml:space="preserve">Números</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numbers</t>
   </si>
   <si>
@@ -203,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Esther</t>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,14 +974,14 @@
       <c r="E5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
+      <c r="F5" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>36</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>12</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>34</v>
@@ -1033,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>12</v>
@@ -1042,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>24</v>
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>12</v>
@@ -1080,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>21</v>
@@ -1109,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>12</v>
@@ -1118,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
@@ -1156,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>31</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>12</v>
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>24</v>
@@ -1223,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -1232,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>22</v>
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1299,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1331,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>12</v>
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>12</v>
@@ -1372,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1401,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>12</v>
@@ -1410,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1439,13 +1439,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>61</v>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>62</v>
@@ -1458,6 +1458,12 @@
       </c>
       <c r="J18" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>29.276842025</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>40.9689593</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,13 +3294,13 @@
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,13 +3312,13 @@
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.863636363636364</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.821698906644239</v>
+        <v>0.830109335576114</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,13 +3330,13 @@
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -94,148 +94,148 @@
     <t xml:space="preserve">Números</t>
   </si>
   <si>
+    <t xml:space="preserve">Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuteronomio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuteronomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esdras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psalms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proverbios</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuteronomio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuteronomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jueces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esdras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psalms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverbios</t>
   </si>
   <si>
     <t xml:space="preserve">Proverbs</t>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L63" activeCellId="0" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,20 +974,26 @@
       <c r="E5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>31.2216179928572</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>34.8414332857143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,19 +1007,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>34</v>
@@ -1033,19 +1039,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>24</v>
@@ -1071,19 +1077,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>21</v>
@@ -1109,19 +1115,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -1147,19 +1153,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>31</v>
@@ -1185,19 +1191,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>24</v>
@@ -1223,19 +1229,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>22</v>
@@ -1261,19 +1267,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1299,19 +1305,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1331,19 +1337,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1363,19 +1369,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1401,19 +1407,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1439,19 +1445,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1477,25 +1483,25 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1515,25 +1521,25 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1553,13 +1559,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>72</v>
@@ -1571,7 +1577,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1641,7 +1647,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -3294,13 +3300,13 @@
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>987</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,13 +3318,13 @@
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.878787878787879</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.830109335576114</v>
+        <v>0.860386879730866</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,13 +3336,13 @@
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -235,295 +235,295 @@
     <t xml:space="preserve">Proverbios</t>
   </si>
   <si>
+    <t xml:space="preserve">Proverbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclesiastés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecclesiastes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song of Solomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apocalyptic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prophecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamentaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezequiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezekiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oseas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obadiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miqueas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahúm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habacuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habakkuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofonías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zephaniah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haggai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacarías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zechariah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaquías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gospel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hechos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Corintios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Corinthians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Corintios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Corinthians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gálatas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galatians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efesios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephesians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filipenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colosenses</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclesiastés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecclesiastes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Song of Solomon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apocalyptic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prophecy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamentaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamentations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezequiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezekiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oseas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hosea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amós</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obadiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miqueas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahúm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habacuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habakkuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofonías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zephaniah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haggai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacarías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zechariah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaquías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mateo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gospel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hechos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Corintios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Corinthians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Corintios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Corinthians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gálatas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galatians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efesios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ephesians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filipenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colosenses</t>
   </si>
   <si>
     <t xml:space="preserve">Colossians</t>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L63" activeCellId="0" sqref="L63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I71" activeCellId="0" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1564,20 +1564,26 @@
       <c r="E21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>65</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>29.9232731333333</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>33.6192164666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,19 +1597,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
@@ -1629,19 +1635,19 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
@@ -1661,25 +1667,25 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>31.558286685034</v>
@@ -1699,25 +1705,25 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.340919558642</v>
@@ -1737,19 +1743,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
@@ -1775,25 +1781,25 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.5987830993464</v>
@@ -1813,25 +1819,25 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>30.0115475244445</v>
@@ -1851,25 +1857,25 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -1889,25 +1895,25 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8152915888889</v>
@@ -1927,25 +1933,25 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.8051863706667</v>
@@ -1965,25 +1971,25 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6259671166667</v>
@@ -2003,19 +2009,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2041,25 +2047,25 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0123840119048</v>
@@ -2079,25 +2085,25 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2117,25 +2123,25 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2155,25 +2161,25 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.7004767060606</v>
@@ -2193,25 +2199,25 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2231,25 +2237,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="H39" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4563420913581</v>
@@ -2269,25 +2275,25 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2307,25 +2313,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3601598061729</v>
@@ -2345,25 +2351,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2372,7 +2378,7 @@
         <v>34.6599276315789</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2383,25 +2389,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2421,25 +2427,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="H44" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2459,25 +2465,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="H45" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1861673694915</v>
@@ -2497,25 +2503,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="H46" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>35.780619652381</v>
@@ -2535,25 +2541,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2573,25 +2579,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="H48" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2611,25 +2617,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="H49" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2649,25 +2655,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>34.9773208333333</v>
@@ -2687,25 +2693,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="s">
+      <c r="H51" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2714,7 +2720,7 @@
         <v>26.5137687</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2725,13 +2731,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>168</v>
@@ -2743,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,7 +2766,7 @@
         <v>170</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
@@ -2775,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>38.033930725</v>
@@ -2798,7 +2804,7 @@
         <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
@@ -2813,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2836,7 @@
         <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
@@ -2845,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -2868,7 +2874,7 @@
         <v>179</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
@@ -2883,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -2906,7 +2912,7 @@
         <v>182</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -2921,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -2944,7 +2950,7 @@
         <v>185</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -2959,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,7 +2982,7 @@
         <v>188</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -2991,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.6318454833334</v>
@@ -3014,7 +3020,7 @@
         <v>191</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
@@ -3029,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3052,7 @@
         <v>194</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
@@ -3061,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>34.622887888889</v>
@@ -3084,7 +3090,7 @@
         <v>197</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
@@ -3099,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>31.771666666667</v>
@@ -3122,7 +3128,7 @@
         <v>200</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
@@ -3137,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,7 +3160,7 @@
         <v>203</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
@@ -3169,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3192,7 @@
         <v>206</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
@@ -3201,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,7 +3224,7 @@
         <v>209</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
@@ -3233,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3256,7 +3262,7 @@
         <v>212</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -3271,7 +3277,7 @@
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.7078413805556</v>
@@ -3300,13 +3306,13 @@
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>1023</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,13 +3324,13 @@
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.893939393939394</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.860386879730866</v>
+        <v>0.88645920941968</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,13 +3342,13 @@
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -801,7 +801,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I71" activeCellId="0" sqref="I71"/>
+      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -103,6 +106,9 @@
     <t xml:space="preserve">Deuteronomio</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deuteronomy</t>
   </si>
   <si>
@@ -521,9 +527,6 @@
   </si>
   <si>
     <t xml:space="preserve">Colosenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Colossians</t>
@@ -793,6 +796,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -800,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1012,14 +1019,14 @@
       <c r="E6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
+      <c r="F6" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>34</v>
@@ -1039,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>12</v>
@@ -1048,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>24</v>
@@ -1077,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>12</v>
@@ -1086,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>21</v>
@@ -1115,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>12</v>
@@ -1124,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -1153,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
@@ -1162,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>31</v>
@@ -1191,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>12</v>
@@ -1200,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>24</v>
@@ -1229,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -1238,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>22</v>
@@ -1267,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -1276,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1305,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -1314,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1337,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>12</v>
@@ -1346,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1369,7 +1376,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>12</v>
@@ -1378,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1407,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>12</v>
@@ -1416,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1445,7 +1452,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
@@ -1454,10 +1461,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1483,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>12</v>
@@ -1492,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1521,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>12</v>
@@ -1530,16 +1537,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1559,7 +1566,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>12</v>
@@ -1568,16 +1575,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>29.9232731333333</v>
@@ -1597,7 +1604,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>12</v>
@@ -1606,16 +1613,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1635,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>12</v>
@@ -1644,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>12</v>
@@ -1676,16 +1683,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>31.558286685034</v>
@@ -1705,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>12</v>
@@ -1714,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.340919558642</v>
@@ -1743,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>12</v>
@@ -1752,16 +1759,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -1781,7 +1788,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>12</v>
@@ -1790,16 +1797,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.5987830993464</v>
@@ -1819,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>12</v>
@@ -1828,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>30.0115475244445</v>
@@ -1857,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>12</v>
@@ -1866,16 +1873,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -1895,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>12</v>
@@ -1904,16 +1911,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8152915888889</v>
@@ -1933,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>12</v>
@@ -1942,16 +1949,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.8051863706667</v>
@@ -1971,7 +1978,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>12</v>
@@ -1980,16 +1987,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6259671166667</v>
@@ -2009,7 +2016,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>12</v>
@@ -2018,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2047,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>12</v>
@@ -2056,16 +2063,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0123840119048</v>
@@ -2085,7 +2092,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>12</v>
@@ -2094,16 +2101,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2123,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>12</v>
@@ -2132,16 +2139,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2161,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>12</v>
@@ -2170,16 +2177,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.7004767060606</v>
@@ -2199,7 +2206,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>12</v>
@@ -2208,16 +2215,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2237,7 +2244,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>12</v>
@@ -2246,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4563420913581</v>
@@ -2275,7 +2282,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>12</v>
@@ -2284,16 +2291,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2313,25 +2320,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3601598061729</v>
@@ -2351,25 +2358,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2378,7 +2385,7 @@
         <v>34.6599276315789</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2389,25 +2396,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2427,25 +2434,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2465,25 +2472,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1861673694915</v>
@@ -2503,25 +2510,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>35.780619652381</v>
@@ -2541,25 +2548,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2579,25 +2586,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2617,25 +2624,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2655,25 +2662,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>34.9773208333333</v>
@@ -2693,25 +2700,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2720,7 +2727,7 @@
         <v>26.5137687</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2731,13 +2738,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>167</v>
+        <v>132</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>168</v>
@@ -2749,7 +2756,13 @@
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>35.5407103</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>35.7952667</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2779,7 @@
         <v>170</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
@@ -2781,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>38.033930725</v>
@@ -2804,7 +2817,7 @@
         <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
@@ -2819,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,7 +2849,7 @@
         <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
@@ -2851,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -2874,7 +2887,7 @@
         <v>179</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
@@ -2889,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -2912,7 +2925,7 @@
         <v>182</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -2927,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -2950,7 +2963,7 @@
         <v>185</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -2965,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +2995,7 @@
         <v>188</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -2997,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.6318454833334</v>
@@ -3006,7 +3019,7 @@
         <v>32.0784964763889</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -3020,7 +3033,7 @@
         <v>191</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
@@ -3035,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,7 +3065,7 @@
         <v>194</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
@@ -3067,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>34.622887888889</v>
@@ -3090,7 +3103,7 @@
         <v>197</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
@@ -3105,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>31.771666666667</v>
@@ -3128,7 +3141,7 @@
         <v>200</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
@@ -3143,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,7 +3173,7 @@
         <v>203</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
@@ -3175,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3205,7 @@
         <v>206</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
@@ -3207,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3237,7 @@
         <v>209</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
@@ -3239,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3262,7 +3275,7 @@
         <v>212</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -3277,7 +3290,7 @@
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.7078413805556</v>
@@ -3306,13 +3319,13 @@
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,13 +3337,13 @@
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.909090909090909</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.88645920941968</v>
+        <v>0.889823380992431</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,16 +3355,17 @@
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3359,5 +3373,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$L$71</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -106,157 +103,157 @@
     <t xml:space="preserve">Deuteronomio</t>
   </si>
   <si>
+    <t xml:space="preserve">Deuteronomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Chronicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esdras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehemiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psalms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lyric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proverbios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proverbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclesiastés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecclesiastes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantares</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuteronomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jueces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Reyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Kings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Chronicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esdras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psalms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverbios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proverbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclesiastés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecclesiastes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantares</t>
   </si>
   <si>
     <t xml:space="preserve">Song of Solomon</t>
@@ -796,10 +793,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -807,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K65" activeCellId="0" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1019,20 +1012,26 @@
       <c r="E6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>31.5061064931373</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>35.735247453268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,19 +1045,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>24</v>
@@ -1084,19 +1083,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>21</v>
@@ -1122,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -1160,19 +1159,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>31</v>
@@ -1198,19 +1197,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>24</v>
@@ -1236,19 +1235,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>22</v>
@@ -1274,19 +1273,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
@@ -1312,19 +1311,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1344,19 +1343,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1376,19 +1375,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1414,19 +1413,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1452,19 +1451,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1490,25 +1489,25 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1528,25 +1527,25 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1566,25 +1565,25 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>29.9232731333333</v>
@@ -1604,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1642,13 +1641,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>78</v>
@@ -1660,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -3019,7 +3018,7 @@
         <v>32.0784964763889</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>33.5147325425926</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -3314,58 +3313,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="0" t="s">
         <v>215</v>
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>1058</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="0" t="s">
         <v>216</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.924242424242424</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.889823380992431</v>
+        <v>0.918418839360807</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="0" t="s">
         <v>217</v>
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3373,6 +3371,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -169,6 +169,9 @@
     <t xml:space="preserve">1 Crónicas</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Chronicles</t>
   </si>
   <si>
@@ -251,9 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cantares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Song of Solomon</t>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K65" activeCellId="0" sqref="K65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I71" activeCellId="0" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1316,14 +1316,14 @@
       <c r="E14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
+      <c r="F14" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1343,19 +1343,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
+      <c r="F15" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>12</v>
@@ -1384,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>12</v>
@@ -1422,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1451,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
@@ -1460,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1489,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>12</v>
@@ -1498,16 +1498,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1527,7 +1527,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>12</v>
@@ -1536,16 +1536,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1565,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>12</v>
@@ -1574,16 +1574,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>29.9232731333333</v>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>12</v>
@@ -1612,16 +1612,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1641,13 +1641,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>77</v>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>78</v>
@@ -1659,7 +1659,13 @@
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>32.2361352458334</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>35.5485861263889</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -3298,7 +3304,7 @@
         <v>33.5147325425926</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -3318,13 +3324,13 @@
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>1092</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,13 +3342,13 @@
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.939393939393939</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.918418839360807</v>
+        <v>0.925147182506308</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,13 +3360,13 @@
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I71" activeCellId="0" sqref="I71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="273">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">longitude</t>
   </si>
   <si>
+    <t xml:space="preserve">topical bible</t>
+  </si>
+  <si>
     <t xml:space="preserve">Génesis</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">historical</t>
   </si>
   <si>
+    <t xml:space="preserve">Gen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Éxodo</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">EXO</t>
   </si>
   <si>
+    <t xml:space="preserve">Exod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Levítico</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t xml:space="preserve">law</t>
   </si>
   <si>
+    <t xml:space="preserve">Lev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Números</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t xml:space="preserve">NUM</t>
   </si>
   <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deuteronomio</t>
   </si>
   <si>
@@ -109,6 +124,9 @@
     <t xml:space="preserve">DEU</t>
   </si>
   <si>
+    <t xml:space="preserve">Deut</t>
+  </si>
+  <si>
     <t xml:space="preserve">Josué</t>
   </si>
   <si>
@@ -118,6 +136,9 @@
     <t xml:space="preserve">JOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Josh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jueces</t>
   </si>
   <si>
@@ -127,6 +148,9 @@
     <t xml:space="preserve">JDG</t>
   </si>
   <si>
+    <t xml:space="preserve">Judg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rut</t>
   </si>
   <si>
@@ -142,12 +166,18 @@
     <t xml:space="preserve">1SA</t>
   </si>
   <si>
+    <t xml:space="preserve">1Sam</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Samuel</t>
   </si>
   <si>
     <t xml:space="preserve">2SA</t>
   </si>
   <si>
+    <t xml:space="preserve">2Sam</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Reyes</t>
   </si>
   <si>
@@ -157,6 +187,9 @@
     <t xml:space="preserve">1KI</t>
   </si>
   <si>
+    <t xml:space="preserve">1Kgs</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Reyes</t>
   </si>
   <si>
@@ -166,6 +199,9 @@
     <t xml:space="preserve">2KI</t>
   </si>
   <si>
+    <t xml:space="preserve">2Kgs</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Crónicas</t>
   </si>
   <si>
@@ -178,6 +214,9 @@
     <t xml:space="preserve">1CH</t>
   </si>
   <si>
+    <t xml:space="preserve">1Chr</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Crónicas</t>
   </si>
   <si>
@@ -187,6 +226,9 @@
     <t xml:space="preserve">2CH</t>
   </si>
   <si>
+    <t xml:space="preserve">2Chr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esdras</t>
   </si>
   <si>
@@ -205,6 +247,9 @@
     <t xml:space="preserve">NEH</t>
   </si>
   <si>
+    <t xml:space="preserve">Neh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ester</t>
   </si>
   <si>
@@ -214,6 +259,9 @@
     <t xml:space="preserve">EST</t>
   </si>
   <si>
+    <t xml:space="preserve">Esth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Job</t>
   </si>
   <si>
@@ -235,6 +283,9 @@
     <t xml:space="preserve">lyric</t>
   </si>
   <si>
+    <t xml:space="preserve">Ps</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proverbios</t>
   </si>
   <si>
@@ -244,6 +295,9 @@
     <t xml:space="preserve">PRO</t>
   </si>
   <si>
+    <t xml:space="preserve">Prov</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eclesiastés</t>
   </si>
   <si>
@@ -253,6 +307,9 @@
     <t xml:space="preserve">ECC</t>
   </si>
   <si>
+    <t xml:space="preserve">Eccl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cantares</t>
   </si>
   <si>
@@ -262,6 +319,9 @@
     <t xml:space="preserve">SON</t>
   </si>
   <si>
+    <t xml:space="preserve">Song</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isaías</t>
   </si>
   <si>
@@ -274,6 +334,9 @@
     <t xml:space="preserve">apocalyptic</t>
   </si>
   <si>
+    <t xml:space="preserve">Isa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeremías</t>
   </si>
   <si>
@@ -286,6 +349,9 @@
     <t xml:space="preserve">prophecy</t>
   </si>
   <si>
+    <t xml:space="preserve">Jer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lamentaciones</t>
   </si>
   <si>
@@ -295,6 +361,9 @@
     <t xml:space="preserve">LAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Lam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ezequiel</t>
   </si>
   <si>
@@ -304,12 +373,18 @@
     <t xml:space="preserve">EZE</t>
   </si>
   <si>
+    <t xml:space="preserve">Ezek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">DAN</t>
   </si>
   <si>
+    <t xml:space="preserve">Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oseas</t>
   </si>
   <si>
@@ -319,6 +394,9 @@
     <t xml:space="preserve">HOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Hos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joel</t>
   </si>
   <si>
@@ -343,6 +421,9 @@
     <t xml:space="preserve">OBA</t>
   </si>
   <si>
+    <t xml:space="preserve">Obad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jonás</t>
   </si>
   <si>
@@ -361,6 +442,9 @@
     <t xml:space="preserve">MIC</t>
   </si>
   <si>
+    <t xml:space="preserve">Mic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nahúm</t>
   </si>
   <si>
@@ -370,6 +454,9 @@
     <t xml:space="preserve">NAH</t>
   </si>
   <si>
+    <t xml:space="preserve">Nah</t>
+  </si>
+  <si>
     <t xml:space="preserve">Habacuc</t>
   </si>
   <si>
@@ -379,6 +466,9 @@
     <t xml:space="preserve">HAB</t>
   </si>
   <si>
+    <t xml:space="preserve">Hab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sofonías</t>
   </si>
   <si>
@@ -388,6 +478,9 @@
     <t xml:space="preserve">ZEP</t>
   </si>
   <si>
+    <t xml:space="preserve">Zeph</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hageo</t>
   </si>
   <si>
@@ -397,6 +490,9 @@
     <t xml:space="preserve">HAG</t>
   </si>
   <si>
+    <t xml:space="preserve">Hag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zacarías</t>
   </si>
   <si>
@@ -406,6 +502,9 @@
     <t xml:space="preserve">ZEC</t>
   </si>
   <si>
+    <t xml:space="preserve">Zech</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malaquías</t>
   </si>
   <si>
@@ -415,6 +514,9 @@
     <t xml:space="preserve">MAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Mal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mateo</t>
   </si>
   <si>
@@ -430,6 +532,9 @@
     <t xml:space="preserve">gospel</t>
   </si>
   <si>
+    <t xml:space="preserve">Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marcos</t>
   </si>
   <si>
@@ -478,6 +583,9 @@
     <t xml:space="preserve">letter</t>
   </si>
   <si>
+    <t xml:space="preserve">Rom</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Corintios</t>
   </si>
   <si>
@@ -487,6 +595,9 @@
     <t xml:space="preserve">1CO</t>
   </si>
   <si>
+    <t xml:space="preserve">1Cor</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Corintios</t>
   </si>
   <si>
@@ -496,6 +607,9 @@
     <t xml:space="preserve">2CO</t>
   </si>
   <si>
+    <t xml:space="preserve">2Cor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gálatas</t>
   </si>
   <si>
@@ -505,6 +619,9 @@
     <t xml:space="preserve">GAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Gal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Efesios</t>
   </si>
   <si>
@@ -514,6 +631,9 @@
     <t xml:space="preserve">EPH</t>
   </si>
   <si>
+    <t xml:space="preserve">Eph</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filipenses</t>
   </si>
   <si>
@@ -523,6 +643,9 @@
     <t xml:space="preserve">PHI</t>
   </si>
   <si>
+    <t xml:space="preserve">Phil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colosenses</t>
   </si>
   <si>
@@ -532,6 +655,9 @@
     <t xml:space="preserve">COL</t>
   </si>
   <si>
+    <t xml:space="preserve">Col</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Tesalonicenses</t>
   </si>
   <si>
@@ -541,6 +667,9 @@
     <t xml:space="preserve">1TH</t>
   </si>
   <si>
+    <t xml:space="preserve">1Thess</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Tesalonicenses</t>
   </si>
   <si>
@@ -550,6 +679,9 @@
     <t xml:space="preserve">2TH</t>
   </si>
   <si>
+    <t xml:space="preserve">2Thess</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Timoteo</t>
   </si>
   <si>
@@ -559,6 +691,9 @@
     <t xml:space="preserve">1TI</t>
   </si>
   <si>
+    <t xml:space="preserve">1Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Timoteo</t>
   </si>
   <si>
@@ -568,6 +703,9 @@
     <t xml:space="preserve">2TI</t>
   </si>
   <si>
+    <t xml:space="preserve">2Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tito</t>
   </si>
   <si>
@@ -586,6 +724,9 @@
     <t xml:space="preserve">PHM</t>
   </si>
   <si>
+    <t xml:space="preserve">Phlm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hebreos</t>
   </si>
   <si>
@@ -595,6 +736,9 @@
     <t xml:space="preserve">HEB</t>
   </si>
   <si>
+    <t xml:space="preserve">Heb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santiago</t>
   </si>
   <si>
@@ -604,6 +748,9 @@
     <t xml:space="preserve">JAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Jas</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Pedro</t>
   </si>
   <si>
@@ -613,6 +760,9 @@
     <t xml:space="preserve">1PE</t>
   </si>
   <si>
+    <t xml:space="preserve">1Pet</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Pedro</t>
   </si>
   <si>
@@ -622,6 +772,9 @@
     <t xml:space="preserve">2PE</t>
   </si>
   <si>
+    <t xml:space="preserve">2Pet</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Juan</t>
   </si>
   <si>
@@ -631,6 +784,9 @@
     <t xml:space="preserve">1JO</t>
   </si>
   <si>
+    <t xml:space="preserve">1John</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Juan</t>
   </si>
   <si>
@@ -640,6 +796,9 @@
     <t xml:space="preserve">2JO</t>
   </si>
   <si>
+    <t xml:space="preserve">2John</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 Juan</t>
   </si>
   <si>
@@ -649,6 +808,9 @@
     <t xml:space="preserve">3JO</t>
   </si>
   <si>
+    <t xml:space="preserve">3John</t>
+  </si>
+  <si>
     <t xml:space="preserve">Judas</t>
   </si>
   <si>
@@ -665,6 +827,9 @@
   </si>
   <si>
     <t xml:space="preserve">REV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev</t>
   </si>
   <si>
     <t xml:space="preserve">total</t>
@@ -798,10 +963,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,8 +1008,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -855,25 +1023,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>32.6156867451613</v>
@@ -881,8 +1049,11 @@
       <c r="L2" s="0" t="n">
         <v>36.7930834290323</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -893,25 +1064,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>40</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>30.4699688976191</v>
@@ -919,8 +1090,11 @@
       <c r="L3" s="0" t="n">
         <v>33.8432804079365</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -931,25 +1105,25 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>30.5217654</v>
@@ -957,8 +1131,11 @@
       <c r="L4" s="0" t="n">
         <v>34.112561</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -969,25 +1146,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>36</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>31.2216179928572</v>
@@ -995,8 +1172,11 @@
       <c r="L5" s="0" t="n">
         <v>34.8414332857143</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1007,25 +1187,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>31.5061064931373</v>
@@ -1033,8 +1213,11 @@
       <c r="L6" s="0" t="n">
         <v>35.735247453268</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1045,25 +1228,25 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>31.7040713934426</v>
@@ -1071,8 +1254,11 @@
       <c r="L7" s="0" t="n">
         <v>34.9903732852459</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1083,25 +1269,25 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>31.7295635169811</v>
@@ -1109,8 +1295,11 @@
       <c r="L8" s="0" t="n">
         <v>35.467874809434</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1121,25 +1310,25 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>29.8573287</v>
@@ -1147,8 +1336,11 @@
       <c r="L9" s="0" t="n">
         <v>33.6188508333333</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1159,25 +1351,25 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>31.5980145176471</v>
@@ -1185,8 +1377,11 @@
       <c r="L10" s="0" t="n">
         <v>35.0461610117647</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1197,25 +1392,25 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>32.2183292375</v>
@@ -1223,8 +1418,11 @@
       <c r="L11" s="0" t="n">
         <v>35.26103851875</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1235,25 +1433,25 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>31.8670741222222</v>
@@ -1261,8 +1459,11 @@
       <c r="L12" s="0" t="n">
         <v>35.1852309356481</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1273,25 +1474,25 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>31.9348416753968</v>
@@ -1299,8 +1500,11 @@
       <c r="L13" s="0" t="n">
         <v>36.3334837740741</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1311,28 +1515,31 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1343,28 +1550,31 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -1375,25 +1585,25 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>32.320034525</v>
@@ -1401,8 +1611,11 @@
       <c r="L16" s="0" t="n">
         <v>37.691306715</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1413,25 +1626,25 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>31.3170995516129</v>
@@ -1439,8 +1652,11 @@
       <c r="L17" s="0" t="n">
         <v>37.0320123806452</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -1451,25 +1667,25 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>29.276842025</v>
@@ -1477,8 +1693,11 @@
       <c r="L18" s="0" t="n">
         <v>40.9689593</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1489,25 +1708,25 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1515,8 +1734,11 @@
       <c r="L19" s="0" t="n">
         <v>38.3640435</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1527,25 +1749,25 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1553,8 +1775,11 @@
       <c r="L20" s="0" t="n">
         <v>35.4313175003472</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1565,25 +1790,25 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>29.9232731333333</v>
@@ -1591,8 +1816,11 @@
       <c r="L21" s="0" t="n">
         <v>33.6192164666667</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1603,25 +1831,25 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1629,8 +1857,11 @@
       <c r="L22" s="0" t="n">
         <v>35.228163</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1641,25 +1872,25 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>32.2361352458334</v>
@@ -1667,8 +1898,11 @@
       <c r="L23" s="0" t="n">
         <v>35.5485861263889</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1679,25 +1913,25 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>31.558286685034</v>
@@ -1705,8 +1939,11 @@
       <c r="L24" s="0" t="n">
         <v>36.2484380798186</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1717,25 +1954,25 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.340919558642</v>
@@ -1743,8 +1980,11 @@
       <c r="L25" s="0" t="n">
         <v>35.4158287465021</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -1755,25 +1995,25 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -1781,8 +2021,11 @@
       <c r="L26" s="0" t="n">
         <v>35.2035639185185</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1793,25 +2036,25 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.5987830993464</v>
@@ -1819,8 +2062,11 @@
       <c r="L27" s="0" t="n">
         <v>35.4612548551198</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -1831,25 +2077,25 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>30.0115475244445</v>
@@ -1857,8 +2103,11 @@
       <c r="L28" s="0" t="n">
         <v>36.9681489007407</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -1869,25 +2118,25 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -1895,8 +2144,11 @@
       <c r="L29" s="0" t="n">
         <v>35.2501034333333</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -1907,25 +2159,25 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8152915888889</v>
@@ -1933,8 +2185,11 @@
       <c r="L30" s="0" t="n">
         <v>33.3907050509259</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1945,25 +2200,25 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.8051863706667</v>
@@ -1971,8 +2226,11 @@
       <c r="L31" s="0" t="n">
         <v>35.0574446284444</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1983,25 +2241,25 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6259671166667</v>
@@ -2009,8 +2267,11 @@
       <c r="L32" s="0" t="n">
         <v>35.2103703711111</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -2021,25 +2282,25 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>36.6525328333333</v>
@@ -2047,8 +2308,11 @@
       <c r="L33" s="0" t="n">
         <v>34.9298637666667</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -2059,25 +2323,25 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0123840119048</v>
@@ -2085,8 +2349,11 @@
       <c r="L34" s="0" t="n">
         <v>36.2378762579365</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -2097,25 +2364,25 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2123,8 +2390,11 @@
       <c r="L35" s="0" t="n">
         <v>33.51317685</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M35" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -2135,25 +2405,25 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2161,8 +2431,11 @@
       <c r="L36" s="0" t="n">
         <v>35.749305</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -2173,25 +2446,25 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.7004767060606</v>
@@ -2199,8 +2472,11 @@
       <c r="L37" s="0" t="n">
         <v>35.3679248191919</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M37" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -2211,25 +2487,25 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2237,8 +2513,11 @@
       <c r="L38" s="0" t="n">
         <v>34.1192041</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -2249,25 +2528,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4563420913581</v>
@@ -2275,8 +2554,11 @@
       <c r="L39" s="0" t="n">
         <v>34.6885989967078</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -2287,25 +2569,25 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2313,8 +2595,11 @@
       <c r="L40" s="0" t="n">
         <v>34.9578466</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -2325,25 +2610,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3601598061729</v>
@@ -2351,8 +2636,11 @@
       <c r="L41" s="0" t="n">
         <v>35.0756762263374</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -2363,25 +2651,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2389,8 +2677,11 @@
       <c r="L42" s="0" t="n">
         <v>34.6599276315789</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M42" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2401,25 +2692,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2427,8 +2718,11 @@
       <c r="L43" s="0" t="n">
         <v>35.6911872666667</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M43" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2439,25 +2733,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2465,8 +2759,11 @@
       <c r="L44" s="0" t="n">
         <v>35.3856338214286</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -2477,25 +2774,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1861673694915</v>
@@ -2503,8 +2800,11 @@
       <c r="L45" s="0" t="n">
         <v>30.4976653186441</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -2515,25 +2815,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>35.780619652381</v>
@@ -2541,8 +2841,11 @@
       <c r="L46" s="0" t="n">
         <v>24.4271275730159</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -2553,25 +2856,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2579,8 +2882,11 @@
       <c r="L47" s="0" t="n">
         <v>31.5965783888889</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M47" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -2591,25 +2897,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2617,8 +2923,11 @@
       <c r="L48" s="0" t="n">
         <v>29.4401928555556</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M48" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -2629,25 +2938,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2655,8 +2964,11 @@
       <c r="L49" s="0" t="n">
         <v>37.2690598</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M49" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2667,25 +2979,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>34.9773208333333</v>
@@ -2693,8 +3005,11 @@
       <c r="L50" s="0" t="n">
         <v>25.5316944</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M50" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -2705,25 +3020,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -2731,8 +3046,11 @@
       <c r="L51" s="0" t="n">
         <v>26.5137687</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M51" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2743,25 +3061,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>35.5407103</v>
@@ -2769,8 +3087,11 @@
       <c r="L52" s="0" t="n">
         <v>35.7952667</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M52" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2781,25 +3102,25 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>38.033930725</v>
@@ -2807,8 +3128,11 @@
       <c r="L53" s="0" t="n">
         <v>25.905193075</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M53" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -2819,28 +3143,31 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -2851,25 +3178,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -2877,8 +3204,11 @@
       <c r="L55" s="0" t="n">
         <v>24.5566651</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -2889,25 +3219,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -2915,8 +3245,11 @@
       <c r="L56" s="0" t="n">
         <v>27.4323937222222</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -2927,25 +3260,25 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -2953,8 +3286,11 @@
       <c r="L57" s="0" t="n">
         <v>24.8092691</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M57" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -2965,28 +3301,31 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M58" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -2997,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.6318454833334</v>
@@ -3023,8 +3362,11 @@
       <c r="L59" s="0" t="n">
         <v>32.0784964763889</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M59" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -3035,28 +3377,31 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -3067,25 +3412,25 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>34.622887888889</v>
@@ -3093,8 +3438,11 @@
       <c r="L61" s="0" t="n">
         <v>37.9289433703703</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M61" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -3105,25 +3453,25 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>31.771666666667</v>
@@ -3131,8 +3479,11 @@
       <c r="L62" s="0" t="n">
         <v>35.228611111111</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M62" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -3143,28 +3494,31 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -3175,28 +3529,31 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -3207,28 +3564,31 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -3239,25 +3599,25 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3265,8 +3625,11 @@
       <c r="L66" s="0" t="n">
         <v>30.802498</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M66" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -3277,31 +3640,34 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.7078413805556</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>33.5147325425926</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3686,7 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
@@ -3338,7 +3704,7 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
@@ -3356,7 +3722,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -965,8 +965,8 @@
   </sheetPr>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I68" activeCellId="0" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="272">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 Crónicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">1 Chronicles</t>
@@ -965,8 +962,8 @@
   </sheetPr>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I68" activeCellId="0" sqref="I68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1520,14 +1517,14 @@
       <c r="E14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>29</v>
@@ -1536,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,19 +1547,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>36</v>
@@ -1571,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,19 +1582,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1612,7 +1609,7 @@
         <v>37.691306715</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,19 +1623,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>13</v>
@@ -1653,7 +1650,7 @@
         <v>37.0320123806452</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,19 +1664,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1694,7 +1691,7 @@
         <v>40.9689593</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,25 +1705,25 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>19.865082</v>
@@ -1735,7 +1732,7 @@
         <v>38.3640435</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,25 +1746,25 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>30.9532842802083</v>
@@ -1776,7 +1773,7 @@
         <v>35.4313175003472</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,25 +1787,25 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>29.9232731333333</v>
@@ -1817,7 +1814,7 @@
         <v>33.6192164666667</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,25 +1828,25 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>32.0003456666667</v>
@@ -1858,7 +1855,7 @@
         <v>35.228163</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,25 +1869,25 @@
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>32.2361352458334</v>
@@ -1899,7 +1896,7 @@
         <v>35.5485861263889</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,25 +1910,25 @@
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>31.558286685034</v>
@@ -1940,7 +1937,7 @@
         <v>36.2484380798186</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,25 +1951,25 @@
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>32.340919558642</v>
@@ -1981,7 +1978,7 @@
         <v>35.4158287465021</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,25 +1992,25 @@
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>31.7260940111112</v>
@@ -2022,7 +2019,7 @@
         <v>35.2035639185185</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,25 +2033,25 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>31.5987830993464</v>
@@ -2063,7 +2060,7 @@
         <v>35.4612548551198</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,25 +2074,25 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>30.0115475244445</v>
@@ -2104,7 +2101,7 @@
         <v>36.9681489007407</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,25 +2115,25 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>31.9816348666667</v>
@@ -2145,7 +2142,7 @@
         <v>35.2501034333333</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,25 +2156,25 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>31.8152915888889</v>
@@ -2186,7 +2183,7 @@
         <v>33.3907050509259</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,25 +2197,25 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>31.8051863706667</v>
@@ -2227,7 +2224,7 @@
         <v>35.0574446284444</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,25 +2238,25 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>31.6259671166667</v>
@@ -2268,7 +2265,7 @@
         <v>35.2103703711111</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,19 +2279,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -2309,7 +2306,7 @@
         <v>34.9298637666667</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,25 +2320,25 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>32.0123840119048</v>
@@ -2350,7 +2347,7 @@
         <v>36.2378762579365</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,25 +2361,25 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>30.02499748</v>
@@ -2391,7 +2388,7 @@
         <v>33.51317685</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,25 +2402,25 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>31.8736</v>
@@ -2432,7 +2429,7 @@
         <v>35.749305</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,25 +2443,25 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>30.7004767060606</v>
@@ -2473,7 +2470,7 @@
         <v>35.3679248191919</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,25 +2484,25 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>30.7391216</v>
@@ -2514,7 +2511,7 @@
         <v>34.1192041</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,25 +2525,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="H39" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>159</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>32.4563420913581</v>
@@ -2555,7 +2552,7 @@
         <v>34.6885989967078</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,25 +2566,25 @@
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>31.2363364</v>
@@ -2596,7 +2593,7 @@
         <v>34.9578466</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,25 +2607,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>32.3601598061729</v>
@@ -2637,7 +2634,7 @@
         <v>35.0756762263374</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,25 +2648,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>32.2966465</v>
@@ -2678,7 +2675,7 @@
         <v>34.6599276315789</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,25 +2689,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>32.5674360666667</v>
@@ -2719,7 +2716,7 @@
         <v>35.6911872666667</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,25 +2730,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="H44" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>32.0573878642857</v>
@@ -2760,7 +2757,7 @@
         <v>35.3856338214286</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,25 +2771,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="H45" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>34.1861673694915</v>
@@ -2801,7 +2798,7 @@
         <v>30.4976653186441</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,25 +2812,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="H46" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>35.780619652381</v>
@@ -2842,7 +2839,7 @@
         <v>24.4271275730159</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,25 +2853,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>33.6480191111111</v>
@@ -2883,7 +2880,7 @@
         <v>31.5965783888889</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,25 +2894,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="H48" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="I48" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>35.8952308111111</v>
@@ -2924,7 +2921,7 @@
         <v>29.4401928555556</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,25 +2935,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="H49" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>31.0277102</v>
@@ -2965,7 +2962,7 @@
         <v>37.2690598</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,25 +2976,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>34.9773208333333</v>
@@ -3006,7 +3003,7 @@
         <v>25.5316944</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="s">
+      <c r="H51" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>37.7649163</v>
@@ -3047,7 +3044,7 @@
         <v>26.5137687</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,25 +3058,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="H52" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>35.5407103</v>
@@ -3088,7 +3085,7 @@
         <v>35.7952667</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,25 +3099,25 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="H53" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>38.033930725</v>
@@ -3129,7 +3126,7 @@
         <v>25.905193075</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,28 +3140,28 @@
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="s">
+      <c r="H54" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,25 +3175,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>39.77852525</v>
@@ -3205,7 +3202,7 @@
         <v>24.5566651</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,25 +3216,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="s">
+      <c r="H56" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>38.8302656777778</v>
@@ -3246,7 +3243,7 @@
         <v>27.4323937222222</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,25 +3257,25 @@
         <v>56</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="s">
+      <c r="H57" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>35.240117</v>
@@ -3287,7 +3284,7 @@
         <v>24.8092691</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,28 +3298,28 @@
         <v>57</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="H58" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="I58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="M58" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,25 +3333,25 @@
         <v>58</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0" t="s">
+      <c r="H59" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="I59" s="0" t="n">
         <v>13</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>30.6318454833334</v>
@@ -3363,7 +3360,7 @@
         <v>32.0784964763889</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,28 +3374,28 @@
         <v>59</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="H60" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,25 +3409,25 @@
         <v>60</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0" t="s">
+      <c r="H61" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>245</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>34.622887888889</v>
@@ -3439,7 +3436,7 @@
         <v>37.9289433703703</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,25 +3450,25 @@
         <v>61</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="s">
+      <c r="H62" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>31.771666666667</v>
@@ -3480,7 +3477,7 @@
         <v>35.228611111111</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,28 +3491,28 @@
         <v>62</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="H63" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,28 +3526,28 @@
         <v>63</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0" t="s">
+      <c r="H64" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="I64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="M64" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,28 +3561,28 @@
         <v>64</v>
       </c>
       <c r="D65" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="0" t="s">
+      <c r="H65" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="I65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="M65" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M65" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,25 +3596,25 @@
         <v>65</v>
       </c>
       <c r="D66" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>26.820553</v>
@@ -3626,7 +3623,7 @@
         <v>30.802498</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,25 +3637,25 @@
         <v>66</v>
       </c>
       <c r="D67" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0" t="s">
+      <c r="H67" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>34.7078413805556</v>
@@ -3667,7 +3664,7 @@
         <v>33.5147325425926</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,17 +3683,17 @@
         <v>67</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="n">
         <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>1100</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,17 +3701,17 @@
         <v>68</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F70" s="3" t="n">
         <f aca="false">F69/F68</f>
-        <v>0.954545454545455</v>
+        <v>1</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="n">
         <f aca="false">I69/I68</f>
-        <v>0.925147182506308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,17 +3719,17 @@
         <v>69</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="n">
         <f aca="false">F68*(1-F70)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="n">
         <f aca="false">I68*(1-I70)</f>
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="269">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -827,24 +827,14 @@
   </si>
   <si>
     <t xml:space="preserve">Rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total falta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -926,21 +916,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -962,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="68:71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1005,11 +987,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -1050,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1091,7 +1073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1132,7 +1114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1173,7 +1155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1214,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1255,7 +1237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1296,7 +1278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1337,7 +1319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1378,7 +1360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1419,7 +1401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1460,7 +1442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1501,7 +1483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1532,11 +1514,17 @@
       <c r="J14" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <v>32.0105521231884</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>36.031745213285</v>
+      </c>
       <c r="M14" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1567,11 +1555,17 @@
       <c r="J15" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <v>32.0012473111111</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>35.8507288237473</v>
+      </c>
       <c r="M15" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -1612,7 +1606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1653,7 +1647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -1694,7 +1688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1735,7 +1729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1776,7 +1770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1817,7 +1811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1858,7 +1852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1940,7 +1934,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1981,7 +1975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -2022,7 +2016,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -2063,7 +2057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -2145,7 +2139,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -2186,7 +2180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -2432,7 +2426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -2473,7 +2467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -2514,7 +2508,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -2637,7 +2631,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2710,16 +2704,16 @@
         <v>168</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>32.5674360666667</v>
+        <v>32.6406997192308</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>35.6911872666667</v>
+        <v>35.0272764423077</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2760,7 +2754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -2842,7 +2836,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -2883,7 +2877,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -2924,7 +2918,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -2965,7 +2959,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -3006,7 +3000,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -3047,7 +3041,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -3129,7 +3123,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -3205,7 +3199,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -3246,7 +3240,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -3287,7 +3281,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -3322,7 +3316,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -3363,7 +3357,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -3398,7 +3392,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -3439,7 +3433,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -3480,7 +3474,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -3550,7 +3544,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -3585,7 +3579,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -3626,7 +3620,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -3668,69 +3662,16 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>1189</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <f aca="false">SUMIF(F2:F67,1)</f>
-        <v>66</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="n">
-        <f aca="false">SUMIF(F2:F67,1,I2:I67)</f>
-        <v>1189</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <f aca="false">F69/F68</f>
-        <v>1</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3" t="n">
-        <f aca="false">I69/I68</f>
-        <v>1</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <f aca="false">F68*(1-F70)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2" t="n">
-        <f aca="false">I68*(1-I70)</f>
-        <v>0</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -944,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="68:71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$B$1:$M$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$M$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1177,11 +1177,11 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N44" activeCellId="0" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -1587,7 +1587,9 @@
       <c r="N9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -4184,7 +4186,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O67"/>
+  <autoFilter ref="B1:N67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$M$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1177,11 +1177,11 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N44" activeCellId="0" sqref="N44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -3168,7 +3168,9 @@
       <c r="N44" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="O44" s="4"/>
+      <c r="O44" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
@@ -4186,7 +4188,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N67"/>
+  <autoFilter ref="B1:O67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$M$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="338">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q41064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next</t>
   </si>
   <si>
     <t xml:space="preserve">Proverbios</t>
@@ -1177,11 +1180,11 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -2084,7 +2087,9 @@
       <c r="N20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -2097,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>15</v>
@@ -2106,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>31</v>
@@ -2124,10 +2129,10 @@
         <v>33.6192164666667</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O21" s="4"/>
     </row>
@@ -2142,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>15</v>
@@ -2151,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>12</v>
@@ -2169,10 +2174,10 @@
         <v>35.228163</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O22" s="4"/>
     </row>
@@ -2187,7 +2192,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>15</v>
@@ -2196,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>8</v>
@@ -2214,10 +2219,10 @@
         <v>35.5485861263889</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>1</v>
@@ -2234,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>15</v>
@@ -2243,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>66</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>31.558286685034</v>
@@ -2261,10 +2266,10 @@
         <v>36.2484380798186</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O24" s="4"/>
     </row>
@@ -2279,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
@@ -2288,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>52</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25" s="3" t="n">
         <v>32.340919558642</v>
@@ -2306,10 +2311,10 @@
         <v>35.4158287465021</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O25" s="4"/>
     </row>
@@ -2324,7 +2329,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>15</v>
@@ -2333,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>5</v>
@@ -2351,10 +2356,10 @@
         <v>35.2035639185185</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O26" s="4"/>
     </row>
@@ -2369,7 +2374,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
@@ -2378,16 +2383,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>48</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K27" s="3" t="n">
         <v>31.5987830993464</v>
@@ -2396,10 +2401,10 @@
         <v>35.4612548551198</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O27" s="4"/>
     </row>
@@ -2414,7 +2419,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>15</v>
@@ -2423,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>12</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K28" s="3" t="n">
         <v>30.0115475244445</v>
@@ -2441,10 +2446,10 @@
         <v>36.9681489007407</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O28" s="4"/>
     </row>
@@ -2459,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>15</v>
@@ -2468,16 +2473,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K29" s="3" t="n">
         <v>31.9816348666667</v>
@@ -2486,10 +2491,10 @@
         <v>35.2501034333333</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O29" s="4"/>
     </row>
@@ -2504,7 +2509,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>15</v>
@@ -2513,16 +2518,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K30" s="3" t="n">
         <v>31.8152915888889</v>
@@ -2531,10 +2536,10 @@
         <v>33.3907050509259</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O30" s="4"/>
     </row>
@@ -2549,7 +2554,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>15</v>
@@ -2558,16 +2563,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I31" s="3" t="n">
         <v>9</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K31" s="3" t="n">
         <v>31.8051863706667</v>
@@ -2576,10 +2581,10 @@
         <v>35.0574446284444</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O31" s="4"/>
     </row>
@@ -2594,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>15</v>
@@ -2603,16 +2608,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K32" s="3" t="n">
         <v>31.6259671166667</v>
@@ -2621,10 +2626,10 @@
         <v>35.2103703711111</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O32" s="4"/>
     </row>
@@ -2639,7 +2644,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>15</v>
@@ -2648,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I33" s="3" t="n">
         <v>4</v>
@@ -2666,10 +2671,10 @@
         <v>34.9298637666667</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O33" s="4"/>
     </row>
@@ -2684,7 +2689,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>15</v>
@@ -2693,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I34" s="3" t="n">
         <v>7</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K34" s="3" t="n">
         <v>32.0123840119048</v>
@@ -2711,10 +2716,10 @@
         <v>36.2378762579365</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O34" s="4"/>
     </row>
@@ -2729,7 +2734,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
@@ -2738,16 +2743,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I35" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K35" s="3" t="n">
         <v>30.02499748</v>
@@ -2756,10 +2761,10 @@
         <v>33.51317685</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O35" s="4"/>
     </row>
@@ -2774,7 +2779,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -2783,16 +2788,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36" s="3" t="n">
         <v>31.8736</v>
@@ -2801,10 +2806,10 @@
         <v>35.749305</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O36" s="4"/>
     </row>
@@ -2819,7 +2824,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>15</v>
@@ -2828,16 +2833,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K37" s="3" t="n">
         <v>30.7004767060606</v>
@@ -2846,10 +2851,10 @@
         <v>35.3679248191919</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O37" s="4"/>
     </row>
@@ -2864,7 +2869,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>15</v>
@@ -2873,16 +2878,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K38" s="3" t="n">
         <v>30.7391216</v>
@@ -2891,10 +2896,10 @@
         <v>34.1192041</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O38" s="4"/>
     </row>
@@ -2909,7 +2914,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>15</v>
@@ -2918,16 +2923,16 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I39" s="3" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K39" s="3" t="n">
         <v>32.4563420913581</v>
@@ -2936,10 +2941,10 @@
         <v>34.6885989967078</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O39" s="4"/>
     </row>
@@ -2954,7 +2959,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>15</v>
@@ -2963,16 +2968,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I40" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K40" s="3" t="n">
         <v>31.2363364</v>
@@ -2981,10 +2986,10 @@
         <v>34.9578466</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O40" s="4"/>
     </row>
@@ -2999,25 +3004,25 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I41" s="3" t="n">
         <v>28</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K41" s="3" t="n">
         <v>32.3601598061729</v>
@@ -3026,10 +3031,10 @@
         <v>35.0756762263374</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -3046,25 +3051,25 @@
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>16</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K42" s="3" t="n">
         <v>32.2966465</v>
@@ -3073,10 +3078,10 @@
         <v>34.6599276315789</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O42" s="4"/>
     </row>
@@ -3091,25 +3096,25 @@
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I43" s="3" t="n">
         <v>24</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K43" s="3" t="n">
         <v>32.6406997192308</v>
@@ -3118,10 +3123,10 @@
         <v>35.0272764423077</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O43" s="4"/>
     </row>
@@ -3136,25 +3141,25 @@
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>21</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K44" s="3" t="n">
         <v>32.0573878642857</v>
@@ -3163,10 +3168,10 @@
         <v>35.3856338214286</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
@@ -3183,25 +3188,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I45" s="3" t="n">
         <v>28</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K45" s="3" t="n">
         <v>34.1861673694915</v>
@@ -3210,10 +3215,10 @@
         <v>30.4976653186441</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O45" s="4"/>
     </row>
@@ -3228,25 +3233,25 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I46" s="3" t="n">
         <v>16</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K46" s="3" t="n">
         <v>35.780619652381</v>
@@ -3255,10 +3260,10 @@
         <v>24.4271275730159</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O46" s="4"/>
     </row>
@@ -3273,25 +3278,25 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I47" s="3" t="n">
         <v>16</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K47" s="3" t="n">
         <v>33.6480191111111</v>
@@ -3300,10 +3305,10 @@
         <v>31.5965783888889</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>1</v>
@@ -3320,25 +3325,25 @@
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I48" s="3" t="n">
         <v>13</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K48" s="3" t="n">
         <v>35.8952308111111</v>
@@ -3347,12 +3352,14 @@
         <v>29.4401928555556</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O48" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="O48" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -3365,25 +3372,25 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I49" s="3" t="n">
         <v>6</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K49" s="3" t="n">
         <v>31.0277102</v>
@@ -3392,10 +3399,10 @@
         <v>37.2690598</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O49" s="4"/>
     </row>
@@ -3410,25 +3417,25 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I50" s="3" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>34.9773208333333</v>
@@ -3437,10 +3444,10 @@
         <v>25.5316944</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O50" s="4"/>
     </row>
@@ -3455,25 +3462,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I51" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>37.7649163</v>
@@ -3482,10 +3489,10 @@
         <v>26.5137687</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O51" s="4"/>
     </row>
@@ -3500,25 +3507,25 @@
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>35.5407103</v>
@@ -3527,10 +3534,10 @@
         <v>35.7952667</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O52" s="4"/>
     </row>
@@ -3545,25 +3552,25 @@
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I53" s="3" t="n">
         <v>5</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>38.033930725</v>
@@ -3572,10 +3579,10 @@
         <v>25.905193075</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O53" s="4"/>
     </row>
@@ -3590,31 +3597,31 @@
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I54" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O54" s="4"/>
     </row>
@@ -3629,25 +3636,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I55" s="3" t="n">
         <v>6</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>39.77852525</v>
@@ -3656,10 +3663,10 @@
         <v>24.5566651</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O55" s="4"/>
     </row>
@@ -3674,25 +3681,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I56" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>38.8302656777778</v>
@@ -3701,10 +3708,10 @@
         <v>27.4323937222222</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O56" s="4"/>
     </row>
@@ -3719,25 +3726,25 @@
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I57" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K57" s="3" t="n">
         <v>35.240117</v>
@@ -3746,10 +3753,10 @@
         <v>24.8092691</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O57" s="4"/>
     </row>
@@ -3764,31 +3771,31 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O58" s="4"/>
     </row>
@@ -3803,25 +3810,25 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I59" s="3" t="n">
         <v>13</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>30.6318454833334</v>
@@ -3830,10 +3837,10 @@
         <v>32.0784964763889</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O59" s="4"/>
     </row>
@@ -3848,31 +3855,31 @@
         <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I60" s="3" t="n">
         <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O60" s="4"/>
     </row>
@@ -3887,25 +3894,25 @@
         <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K61" s="3" t="n">
         <v>34.622887888889</v>
@@ -3914,10 +3921,10 @@
         <v>37.9289433703703</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O61" s="4"/>
     </row>
@@ -3932,25 +3939,25 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I62" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K62" s="3" t="n">
         <v>31.771666666667</v>
@@ -3959,10 +3966,10 @@
         <v>35.228611111111</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O62" s="4"/>
     </row>
@@ -3977,31 +3984,31 @@
         <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I63" s="3" t="n">
         <v>5</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O63" s="4"/>
     </row>
@@ -4016,31 +4023,31 @@
         <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O64" s="4"/>
     </row>
@@ -4055,31 +4062,31 @@
         <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O65" s="4"/>
     </row>
@@ -4094,25 +4101,25 @@
         <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K66" s="3" t="n">
         <v>26.820553</v>
@@ -4121,10 +4128,10 @@
         <v>30.802498</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O66" s="4"/>
     </row>
@@ -4139,25 +4146,25 @@
         <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I67" s="3" t="n">
         <v>22</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K67" s="3" t="n">
         <v>34.7078413805556</v>
@@ -4166,10 +4173,10 @@
         <v>33.5147325425926</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>1</v>
@@ -4188,7 +4195,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O67"/>
+  <autoFilter ref="B1:N67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$M$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">topical bible</t>
+    <t xml:space="preserve">alternative_id</t>
   </si>
   <si>
     <t xml:space="preserve">wikid</t>
@@ -1178,13 +1178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:AMJ71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -1208,27 +1208,29 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1255,25 +1257,26 @@
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="L2" s="3" t="n">
         <v>32.6156867451613</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>36.7930834290323</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="P2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1302,25 +1305,26 @@
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="L3" s="3" t="n">
         <v>30.4699688976191</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>33.8432804079365</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -1347,25 +1351,26 @@
       <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="L4" s="3" t="n">
         <v>30.5217654</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>34.112561</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -1392,25 +1397,26 @@
       <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="L5" s="3" t="n">
         <v>31.2216179928572</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>34.8414332857143</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -1437,25 +1443,26 @@
       <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="L6" s="3" t="n">
         <v>31.5061064931373</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="M6" s="3" t="n">
         <v>35.735247453268</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1482,25 +1489,26 @@
       <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="L7" s="3" t="n">
         <v>31.7040713934426</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>34.9903732852459</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1527,25 +1535,26 @@
       <c r="H8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="L8" s="3" t="n">
         <v>31.7295635169811</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="M8" s="3" t="n">
         <v>35.467874809434</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1572,25 +1581,26 @@
       <c r="H9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="L9" s="3" t="n">
         <v>29.8573287</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="M9" s="3" t="n">
         <v>33.6188508333333</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="P9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,25 +1629,26 @@
       <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="L10" s="3" t="n">
         <v>31.5980145176471</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="M10" s="3" t="n">
         <v>35.0461610117647</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -1664,25 +1675,26 @@
       <c r="H11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="L11" s="3" t="n">
         <v>32.2183292375</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="M11" s="3" t="n">
         <v>35.26103851875</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -1709,25 +1721,26 @@
       <c r="H12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="L12" s="3" t="n">
         <v>31.8670741222222</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="M12" s="3" t="n">
         <v>35.1852309356481</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -1754,25 +1767,26 @@
       <c r="H13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="L13" s="3" t="n">
         <v>31.9348416753968</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="M13" s="3" t="n">
         <v>36.3334837740741</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1799,25 +1813,26 @@
       <c r="H14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="L14" s="3" t="n">
         <v>32.0105521231884</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="M14" s="3" t="n">
         <v>36.031745213285</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -1844,25 +1859,26 @@
       <c r="H15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="L15" s="3" t="n">
         <v>32.0012473111111</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="M15" s="3" t="n">
         <v>35.8507288237473</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1889,25 +1905,26 @@
       <c r="H16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="L16" s="3" t="n">
         <v>32.320034525</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="M16" s="3" t="n">
         <v>37.691306715</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1934,25 +1951,26 @@
       <c r="H17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="L17" s="3" t="n">
         <v>31.3170995516129</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="M17" s="3" t="n">
         <v>37.0320123806452</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -1979,25 +1997,26 @@
       <c r="H18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="L18" s="3" t="n">
         <v>29.276842025</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="M18" s="3" t="n">
         <v>40.9689593</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -2024,25 +2043,26 @@
       <c r="H19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="L19" s="3" t="n">
         <v>19.865082</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="M19" s="3" t="n">
         <v>38.3640435</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -2069,25 +2089,26 @@
       <c r="H20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="L20" s="3" t="n">
         <v>30.9532842802083</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="M20" s="3" t="n">
         <v>35.4313175003472</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2116,25 +2137,26 @@
       <c r="H21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="L21" s="3" t="n">
         <v>29.9232731333333</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="M21" s="3" t="n">
         <v>33.6192164666667</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -2161,25 +2183,26 @@
       <c r="H22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="L22" s="3" t="n">
         <v>32.0003456666667</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="M22" s="3" t="n">
         <v>35.228163</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -2206,25 +2229,26 @@
       <c r="H23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="L23" s="3" t="n">
         <v>32.2361352458334</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="M23" s="3" t="n">
         <v>35.5485861263889</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="4" t="n">
+      <c r="P23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,25 +2277,26 @@
       <c r="H24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="L24" s="3" t="n">
         <v>31.558286685034</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="M24" s="3" t="n">
         <v>36.2484380798186</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -2298,25 +2323,26 @@
       <c r="H25" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="L25" s="3" t="n">
         <v>32.340919558642</v>
       </c>
-      <c r="L25" s="3" t="n">
+      <c r="M25" s="3" t="n">
         <v>35.4158287465021</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -2343,25 +2369,26 @@
       <c r="H26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="L26" s="3" t="n">
         <v>31.7260940111112</v>
       </c>
-      <c r="L26" s="3" t="n">
+      <c r="M26" s="3" t="n">
         <v>35.2035639185185</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -2388,25 +2415,26 @@
       <c r="H27" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="L27" s="3" t="n">
         <v>31.5987830993464</v>
       </c>
-      <c r="L27" s="3" t="n">
+      <c r="M27" s="3" t="n">
         <v>35.4612548551198</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -2433,25 +2461,26 @@
       <c r="H28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="3" t="n">
+      <c r="L28" s="3" t="n">
         <v>30.0115475244445</v>
       </c>
-      <c r="L28" s="3" t="n">
+      <c r="M28" s="3" t="n">
         <v>36.9681489007407</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -2478,25 +2507,26 @@
       <c r="H29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="L29" s="3" t="n">
         <v>31.9816348666667</v>
       </c>
-      <c r="L29" s="3" t="n">
+      <c r="M29" s="3" t="n">
         <v>35.2501034333333</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -2523,25 +2553,26 @@
       <c r="H30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="L30" s="3" t="n">
         <v>31.8152915888889</v>
       </c>
-      <c r="L30" s="3" t="n">
+      <c r="M30" s="3" t="n">
         <v>33.3907050509259</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -2568,25 +2599,26 @@
       <c r="H31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="L31" s="3" t="n">
         <v>31.8051863706667</v>
       </c>
-      <c r="L31" s="3" t="n">
+      <c r="M31" s="3" t="n">
         <v>35.0574446284444</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -2613,25 +2645,26 @@
       <c r="H32" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="L32" s="3" t="n">
         <v>31.6259671166667</v>
       </c>
-      <c r="L32" s="3" t="n">
+      <c r="M32" s="3" t="n">
         <v>35.2103703711111</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -2658,25 +2691,26 @@
       <c r="H33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="L33" s="3" t="n">
         <v>36.6525328333333</v>
       </c>
-      <c r="L33" s="3" t="n">
+      <c r="M33" s="3" t="n">
         <v>34.9298637666667</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -2703,25 +2737,26 @@
       <c r="H34" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="3" t="n">
+      <c r="L34" s="3" t="n">
         <v>32.0123840119048</v>
       </c>
-      <c r="L34" s="3" t="n">
+      <c r="M34" s="3" t="n">
         <v>36.2378762579365</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -2748,25 +2783,26 @@
       <c r="H35" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K35" s="3" t="n">
+      <c r="L35" s="3" t="n">
         <v>30.02499748</v>
       </c>
-      <c r="L35" s="3" t="n">
+      <c r="M35" s="3" t="n">
         <v>33.51317685</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -2793,25 +2829,26 @@
       <c r="H36" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="L36" s="3" t="n">
         <v>31.8736</v>
       </c>
-      <c r="L36" s="3" t="n">
+      <c r="M36" s="3" t="n">
         <v>35.749305</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -2838,25 +2875,26 @@
       <c r="H37" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K37" s="3" t="n">
+      <c r="L37" s="3" t="n">
         <v>30.7004767060606</v>
       </c>
-      <c r="L37" s="3" t="n">
+      <c r="M37" s="3" t="n">
         <v>35.3679248191919</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -2883,25 +2921,26 @@
       <c r="H38" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K38" s="3" t="n">
+      <c r="L38" s="3" t="n">
         <v>30.7391216</v>
       </c>
-      <c r="L38" s="3" t="n">
+      <c r="M38" s="3" t="n">
         <v>34.1192041</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -2928,25 +2967,26 @@
       <c r="H39" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="L39" s="3" t="n">
         <v>32.4563420913581</v>
       </c>
-      <c r="L39" s="3" t="n">
+      <c r="M39" s="3" t="n">
         <v>34.6885989967078</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -2973,25 +3013,26 @@
       <c r="H40" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="L40" s="3" t="n">
         <v>31.2363364</v>
       </c>
-      <c r="L40" s="3" t="n">
+      <c r="M40" s="3" t="n">
         <v>34.9578466</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -3018,25 +3059,26 @@
       <c r="H41" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="L41" s="3" t="n">
         <v>32.3601598061729</v>
       </c>
-      <c r="L41" s="3" t="n">
+      <c r="M41" s="3" t="n">
         <v>35.0756762263374</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="O41" s="4" t="n">
+      <c r="P41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,25 +3107,26 @@
       <c r="H42" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K42" s="3" t="n">
+      <c r="L42" s="3" t="n">
         <v>32.2966465</v>
       </c>
-      <c r="L42" s="3" t="n">
+      <c r="M42" s="3" t="n">
         <v>34.6599276315789</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -3110,25 +3153,26 @@
       <c r="H43" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="L43" s="3" t="n">
         <v>32.6406997192308</v>
       </c>
-      <c r="L43" s="3" t="n">
+      <c r="M43" s="3" t="n">
         <v>35.0272764423077</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -3155,25 +3199,26 @@
       <c r="H44" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K44" s="3" t="n">
+      <c r="L44" s="3" t="n">
         <v>32.0573878642857</v>
       </c>
-      <c r="L44" s="3" t="n">
+      <c r="M44" s="3" t="n">
         <v>35.3856338214286</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O44" s="4" t="n">
+      <c r="P44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,25 +3247,26 @@
       <c r="H45" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="L45" s="3" t="n">
         <v>34.1861673694915</v>
       </c>
-      <c r="L45" s="3" t="n">
+      <c r="M45" s="3" t="n">
         <v>30.4976653186441</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -3247,25 +3293,26 @@
       <c r="H46" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K46" s="3" t="n">
+      <c r="L46" s="3" t="n">
         <v>35.780619652381</v>
       </c>
-      <c r="L46" s="3" t="n">
+      <c r="M46" s="3" t="n">
         <v>24.4271275730159</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -3292,25 +3339,26 @@
       <c r="H47" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K47" s="3" t="n">
+      <c r="L47" s="3" t="n">
         <v>33.6480191111111</v>
       </c>
-      <c r="L47" s="3" t="n">
+      <c r="M47" s="3" t="n">
         <v>31.5965783888889</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="O47" s="4" t="n">
+      <c r="P47" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3339,25 +3387,26 @@
       <c r="H48" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K48" s="3" t="n">
+      <c r="L48" s="3" t="n">
         <v>35.8952308111111</v>
       </c>
-      <c r="L48" s="3" t="n">
+      <c r="M48" s="3" t="n">
         <v>29.4401928555556</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="O48" s="4" t="n">
+      <c r="P48" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,25 +3435,26 @@
       <c r="H49" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K49" s="3" t="n">
+      <c r="L49" s="3" t="n">
         <v>31.0277102</v>
       </c>
-      <c r="L49" s="3" t="n">
+      <c r="M49" s="3" t="n">
         <v>37.2690598</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -3431,25 +3481,26 @@
       <c r="H50" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="3" t="n">
+      <c r="L50" s="3" t="n">
         <v>34.9773208333333</v>
       </c>
-      <c r="L50" s="3" t="n">
+      <c r="M50" s="3" t="n">
         <v>25.5316944</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -3476,25 +3527,26 @@
       <c r="H51" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K51" s="3" t="n">
+      <c r="L51" s="3" t="n">
         <v>37.7649163</v>
       </c>
-      <c r="L51" s="3" t="n">
+      <c r="M51" s="3" t="n">
         <v>26.5137687</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -3521,25 +3573,26 @@
       <c r="H52" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K52" s="3" t="n">
+      <c r="L52" s="3" t="n">
         <v>35.5407103</v>
       </c>
-      <c r="L52" s="3" t="n">
+      <c r="M52" s="3" t="n">
         <v>35.7952667</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -3566,25 +3619,26 @@
       <c r="H53" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K53" s="3" t="n">
+      <c r="L53" s="3" t="n">
         <v>38.033930725</v>
       </c>
-      <c r="L53" s="3" t="n">
+      <c r="M53" s="3" t="n">
         <v>25.905193075</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="O53" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -3611,19 +3665,20 @@
       <c r="H54" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -3650,25 +3705,26 @@
       <c r="H55" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I55" s="3" t="n">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K55" s="3" t="n">
+      <c r="L55" s="3" t="n">
         <v>39.77852525</v>
       </c>
-      <c r="L55" s="3" t="n">
+      <c r="M55" s="3" t="n">
         <v>24.5566651</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -3695,25 +3751,26 @@
       <c r="H56" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="3" t="n">
+      <c r="L56" s="3" t="n">
         <v>38.8302656777778</v>
       </c>
-      <c r="L56" s="3" t="n">
+      <c r="M56" s="3" t="n">
         <v>27.4323937222222</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -3740,25 +3797,26 @@
       <c r="H57" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I57" s="3" t="n">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K57" s="3" t="n">
+      <c r="L57" s="3" t="n">
         <v>35.240117</v>
       </c>
-      <c r="L57" s="3" t="n">
+      <c r="M57" s="3" t="n">
         <v>24.8092691</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -3785,19 +3843,20 @@
       <c r="H58" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -3824,25 +3883,26 @@
       <c r="H59" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I59" s="3" t="n">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K59" s="3" t="n">
+      <c r="L59" s="3" t="n">
         <v>30.6318454833334</v>
       </c>
-      <c r="L59" s="3" t="n">
+      <c r="M59" s="3" t="n">
         <v>32.0784964763889</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="O59" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -3869,19 +3929,20 @@
       <c r="H60" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I60" s="3" t="n">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="O60" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -3908,25 +3969,26 @@
       <c r="H61" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I61" s="3" t="n">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K61" s="3" t="n">
+      <c r="L61" s="3" t="n">
         <v>34.622887888889</v>
       </c>
-      <c r="L61" s="3" t="n">
+      <c r="M61" s="3" t="n">
         <v>37.9289433703703</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="O61" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -3953,25 +4015,26 @@
       <c r="H62" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I62" s="3" t="n">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K62" s="3" t="n">
+      <c r="L62" s="3" t="n">
         <v>31.771666666667</v>
       </c>
-      <c r="L62" s="3" t="n">
+      <c r="M62" s="3" t="n">
         <v>35.228611111111</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -3998,19 +4061,20 @@
       <c r="H63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I63" s="3" t="n">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="O63" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -4037,19 +4101,20 @@
       <c r="H64" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I64" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="O64" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -4076,19 +4141,20 @@
       <c r="H65" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -4115,25 +4181,26 @@
       <c r="H66" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="I66" s="3"/>
+      <c r="J66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K66" s="3" t="n">
+      <c r="L66" s="3" t="n">
         <v>26.820553</v>
       </c>
-      <c r="L66" s="3" t="n">
+      <c r="M66" s="3" t="n">
         <v>30.802498</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="O66" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -4160,25 +4227,26 @@
       <c r="H67" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I67" s="3" t="n">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K67" s="3" t="n">
+      <c r="L67" s="3" t="n">
         <v>34.7078413805556</v>
       </c>
-      <c r="L67" s="3" t="n">
+      <c r="M67" s="3" t="n">
         <v>33.5147325425926</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="O67" s="4" t="n">
+      <c r="P67" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4195,7 +4263,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N67"/>
+  <autoFilter ref="B1:P67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$N$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="342">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -54,6 +54,9 @@
     <t xml:space="preserve">genre</t>
   </si>
   <si>
+    <t xml:space="preserve">Genre-multilabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
@@ -411,6 +414,9 @@
     <t xml:space="preserve">apocalyptic</t>
   </si>
   <si>
+    <t xml:space="preserve">apocalyptic, prophecy </t>
+  </si>
+  <si>
     <t xml:space="preserve">Isa</t>
   </si>
   <si>
@@ -537,6 +543,9 @@
     <t xml:space="preserve">JON</t>
   </si>
   <si>
+    <t xml:space="preserve">historical, prophecy </t>
+  </si>
+  <si>
     <t xml:space="preserve">Q178819</t>
   </si>
   <si>
@@ -658,6 +667,9 @@
   </si>
   <si>
     <t xml:space="preserve">gospel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gospel, historical </t>
   </si>
   <si>
     <t xml:space="preserve">Matt</t>
@@ -1178,13 +1190,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -1224,13 +1236,15 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1243,40 +1257,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="n">
         <v>32.6156867451613</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="N2" s="3" t="n">
         <v>36.7930834290323</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1291,40 +1308,43 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="n">
         <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>30.4699688976191</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="N3" s="3" t="n">
         <v>33.8432804079365</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -1337,40 +1357,43 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="n">
         <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="n">
         <v>30.5217654</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="N4" s="3" t="n">
         <v>34.112561</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -1383,40 +1406,43 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>31.2216179928572</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="N5" s="3" t="n">
         <v>34.8414332857143</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -1429,40 +1455,43 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="n">
         <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3" t="n">
         <v>31.5061064931373</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="N6" s="3" t="n">
         <v>35.735247453268</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1475,40 +1504,43 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>31.7040713934426</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="N7" s="3" t="n">
         <v>34.9903732852459</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1521,40 +1553,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="n">
         <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="n">
         <v>31.7295635169811</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="N8" s="3" t="n">
         <v>35.467874809434</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1567,40 +1602,43 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3" t="n">
         <v>29.8573287</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="N9" s="3" t="n">
         <v>33.6188508333333</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="O9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1615,40 +1653,43 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="n">
         <v>31</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="n">
         <v>31.5980145176471</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="N10" s="3" t="n">
         <v>35.0461610117647</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -1661,40 +1702,43 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="n">
         <v>32.2183292375</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="N11" s="3" t="n">
         <v>35.26103851875</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -1707,40 +1751,43 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="n">
         <v>22</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="n">
         <v>31.8670741222222</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="N12" s="3" t="n">
         <v>35.1852309356481</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -1753,40 +1800,43 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="n">
         <v>25</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="n">
         <v>31.9348416753968</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="N13" s="3" t="n">
         <v>36.3334837740741</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1799,40 +1849,43 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="n">
         <v>29</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="n">
         <v>32.0105521231884</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="N14" s="3" t="n">
         <v>36.031745213285</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -1845,40 +1898,43 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="n">
         <v>36</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="n">
         <v>32.0012473111111</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="N15" s="3" t="n">
         <v>35.8507288237473</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1891,40 +1947,43 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="n">
         <v>10</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="n">
         <v>32.320034525</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="N16" s="3" t="n">
         <v>37.691306715</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1937,40 +1996,43 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3" t="n">
         <v>31.3170995516129</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="N17" s="3" t="n">
         <v>37.0320123806452</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -1983,40 +2045,43 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="n">
         <v>10</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3" t="n">
         <v>29.276842025</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="N18" s="3" t="n">
         <v>40.9689593</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -2029,40 +2094,43 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="n">
         <v>42</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="3" t="n">
         <v>19.865082</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="N19" s="3" t="n">
         <v>38.3640435</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="O19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -2075,41 +2143,44 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="n">
         <v>150</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="3" t="n">
         <v>30.9532842802083</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="N20" s="3" t="n">
         <v>35.4313175003472</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,40 +2194,43 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="n">
         <v>31</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="3" t="n">
         <v>29.9232731333333</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="N21" s="3" t="n">
         <v>33.6192164666667</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -2169,40 +2243,43 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="3" t="n">
         <v>32.0003456666667</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="N22" s="3" t="n">
         <v>35.228163</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="4"/>
+      <c r="P22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -2215,40 +2292,43 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="3" t="n">
         <v>32.2361352458334</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="N23" s="3" t="n">
         <v>35.5485861263889</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="P23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,40 +2343,43 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="n">
         <v>66</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="3" t="n">
         <v>31.558286685034</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="N24" s="3" t="n">
         <v>36.2484380798186</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="O24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -2309,40 +2392,43 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="n">
         <v>52</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="3" t="n">
         <v>32.340919558642</v>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="N25" s="3" t="n">
         <v>35.4158287465021</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="O25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="P25" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -2355,40 +2441,43 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="3" t="n">
         <v>31.7260940111112</v>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="N26" s="3" t="n">
         <v>35.2035639185185</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="O26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P26" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -2401,40 +2490,43 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="n">
         <v>48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="3" t="n">
         <v>31.5987830993464</v>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="N27" s="3" t="n">
         <v>35.4612548551198</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="O27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P27" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -2447,40 +2539,43 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="3" t="n">
         <v>30.0115475244445</v>
       </c>
-      <c r="M28" s="3" t="n">
+      <c r="N28" s="3" t="n">
         <v>36.9681489007407</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P28" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -2493,40 +2588,43 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L29" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="3" t="n">
         <v>31.9816348666667</v>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="N29" s="3" t="n">
         <v>35.2501034333333</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="O29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -2539,40 +2637,43 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="3" t="n">
         <v>31.8152915888889</v>
       </c>
-      <c r="M30" s="3" t="n">
+      <c r="N30" s="3" t="n">
         <v>33.3907050509259</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P30" s="4"/>
+      <c r="P30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -2585,40 +2686,43 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="3" t="n">
         <v>31.8051863706667</v>
       </c>
-      <c r="M31" s="3" t="n">
+      <c r="N31" s="3" t="n">
         <v>35.0574446284444</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="4"/>
+      <c r="P31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -2631,40 +2735,43 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L32" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="3" t="n">
         <v>31.6259671166667</v>
       </c>
-      <c r="M32" s="3" t="n">
+      <c r="N32" s="3" t="n">
         <v>35.2103703711111</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="O32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P32" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -2677,40 +2784,43 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="3" t="n">
         <v>36.6525328333333</v>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="N33" s="3" t="n">
         <v>34.9298637666667</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P33" s="4"/>
+      <c r="P33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -2723,40 +2833,43 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="n">
         <v>7</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L34" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" s="3" t="n">
         <v>32.0123840119048</v>
       </c>
-      <c r="M34" s="3" t="n">
+      <c r="N34" s="3" t="n">
         <v>36.2378762579365</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="O34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P34" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -2769,40 +2882,43 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L35" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" s="3" t="n">
         <v>30.02499748</v>
       </c>
-      <c r="M35" s="3" t="n">
+      <c r="N35" s="3" t="n">
         <v>33.51317685</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="O35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P35" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -2815,40 +2931,43 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" s="3" t="n">
         <v>31.8736</v>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="N36" s="3" t="n">
         <v>35.749305</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="O36" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P36" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -2861,40 +2980,43 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L37" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="3" t="n">
         <v>30.7004767060606</v>
       </c>
-      <c r="M37" s="3" t="n">
+      <c r="N37" s="3" t="n">
         <v>35.3679248191919</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="O37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P37" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -2907,40 +3029,43 @@
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L38" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M38" s="3" t="n">
         <v>30.7391216</v>
       </c>
-      <c r="M38" s="3" t="n">
+      <c r="N38" s="3" t="n">
         <v>34.1192041</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="O38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P38" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -2953,40 +3078,43 @@
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L39" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M39" s="3" t="n">
         <v>32.4563420913581</v>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="N39" s="3" t="n">
         <v>34.6885989967078</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="O39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="P39" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -2999,40 +3127,43 @@
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L40" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40" s="3" t="n">
         <v>31.2363364</v>
       </c>
-      <c r="M40" s="3" t="n">
+      <c r="N40" s="3" t="n">
         <v>34.9578466</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="O40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="P40" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -3045,40 +3176,43 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L41" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M41" s="3" t="n">
         <v>32.3601598061729</v>
       </c>
-      <c r="M41" s="3" t="n">
+      <c r="N41" s="3" t="n">
         <v>35.0756762263374</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="O41" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P41" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,40 +3227,43 @@
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L42" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M42" s="3" t="n">
         <v>32.2966465</v>
       </c>
-      <c r="M42" s="3" t="n">
+      <c r="N42" s="3" t="n">
         <v>34.6599276315789</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="O42" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P42" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -3139,40 +3276,43 @@
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L43" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M43" s="3" t="n">
         <v>32.6406997192308</v>
       </c>
-      <c r="M43" s="3" t="n">
+      <c r="N43" s="3" t="n">
         <v>35.0272764423077</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="O43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P43" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -3185,40 +3325,43 @@
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="n">
         <v>21</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L44" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44" s="3" t="n">
         <v>32.0573878642857</v>
       </c>
-      <c r="M44" s="3" t="n">
+      <c r="N44" s="3" t="n">
         <v>35.3856338214286</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="O44" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="P44" s="4" t="n">
+        <v>226</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,40 +3376,43 @@
         <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L45" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M45" s="3" t="n">
         <v>34.1861673694915</v>
       </c>
-      <c r="M45" s="3" t="n">
+      <c r="N45" s="3" t="n">
         <v>30.4976653186441</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="O45" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P45" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -3279,40 +3425,43 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L46" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M46" s="3" t="n">
         <v>35.780619652381</v>
       </c>
-      <c r="M46" s="3" t="n">
+      <c r="N46" s="3" t="n">
         <v>24.4271275730159</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="O46" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="P46" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -3325,40 +3474,43 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L47" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M47" s="3" t="n">
         <v>33.6480191111111</v>
       </c>
-      <c r="M47" s="3" t="n">
+      <c r="N47" s="3" t="n">
         <v>31.5965783888889</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="O47" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="P47" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q47" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,40 +3525,43 @@
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L48" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M48" s="3" t="n">
         <v>35.8952308111111</v>
       </c>
-      <c r="M48" s="3" t="n">
+      <c r="N48" s="3" t="n">
         <v>29.4401928555556</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="O48" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P48" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q48" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3421,40 +3576,43 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L49" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M49" s="3" t="n">
         <v>31.0277102</v>
       </c>
-      <c r="M49" s="3" t="n">
+      <c r="N49" s="3" t="n">
         <v>37.2690598</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="O49" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P49" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -3467,40 +3625,43 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L50" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M50" s="3" t="n">
         <v>34.9773208333333</v>
       </c>
-      <c r="M50" s="3" t="n">
+      <c r="N50" s="3" t="n">
         <v>25.5316944</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="O50" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="P50" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -3513,40 +3674,43 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L51" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M51" s="3" t="n">
         <v>37.7649163</v>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="N51" s="3" t="n">
         <v>26.5137687</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="O51" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="P51" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -3559,40 +3723,43 @@
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L52" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M52" s="3" t="n">
         <v>35.5407103</v>
       </c>
-      <c r="M52" s="3" t="n">
+      <c r="N52" s="3" t="n">
         <v>35.7952667</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="O52" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P52" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -3605,40 +3772,43 @@
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L53" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M53" s="3" t="n">
         <v>38.033930725</v>
       </c>
-      <c r="M53" s="3" t="n">
+      <c r="N53" s="3" t="n">
         <v>25.905193075</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="O53" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P53" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -3651,34 +3821,37 @@
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>273</v>
+        <v>236</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="P54" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -3691,40 +3864,43 @@
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L55" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M55" s="3" t="n">
         <v>39.77852525</v>
       </c>
-      <c r="M55" s="3" t="n">
+      <c r="N55" s="3" t="n">
         <v>24.5566651</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="O55" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="P55" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -3737,40 +3913,43 @@
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L56" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M56" s="3" t="n">
         <v>38.8302656777778</v>
       </c>
-      <c r="M56" s="3" t="n">
+      <c r="N56" s="3" t="n">
         <v>27.4323937222222</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="O56" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="P56" s="4"/>
+        <v>287</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -3783,40 +3962,43 @@
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L57" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M57" s="3" t="n">
         <v>35.240117</v>
       </c>
-      <c r="M57" s="3" t="n">
+      <c r="N57" s="3" t="n">
         <v>24.8092691</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="O57" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="P57" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -3829,34 +4011,37 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="P58" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -3869,40 +4054,43 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L59" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M59" s="3" t="n">
         <v>30.6318454833334</v>
       </c>
-      <c r="M59" s="3" t="n">
+      <c r="N59" s="3" t="n">
         <v>32.0784964763889</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="O59" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="P59" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -3915,34 +4103,37 @@
         <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>302</v>
+        <v>236</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="P60" s="4"/>
+        <v>306</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -3955,40 +4146,43 @@
         <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L61" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M61" s="3" t="n">
         <v>34.622887888889</v>
       </c>
-      <c r="M61" s="3" t="n">
+      <c r="N61" s="3" t="n">
         <v>37.9289433703703</v>
       </c>
-      <c r="N61" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="O61" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="P61" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -4001,40 +4195,43 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L62" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M62" s="3" t="n">
         <v>31.771666666667</v>
       </c>
-      <c r="M62" s="3" t="n">
+      <c r="N62" s="3" t="n">
         <v>35.228611111111</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="O62" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="P62" s="4"/>
+        <v>316</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -4047,34 +4244,37 @@
         <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>317</v>
+        <v>236</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="P63" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -4087,34 +4287,37 @@
         <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>322</v>
+        <v>236</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="P64" s="4"/>
+        <v>326</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -4127,34 +4330,37 @@
         <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>327</v>
+        <v>236</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="P65" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -4167,40 +4373,43 @@
         <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L66" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M66" s="3" t="n">
         <v>26.820553</v>
       </c>
-      <c r="M66" s="3" t="n">
+      <c r="N66" s="3" t="n">
         <v>30.802498</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="O66" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="P66" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -4213,40 +4422,43 @@
         <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="n">
         <v>22</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L67" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M67" s="3" t="n">
         <v>34.7078413805556</v>
       </c>
-      <c r="M67" s="3" t="n">
+      <c r="N67" s="3" t="n">
         <v>33.5147325425926</v>
       </c>
-      <c r="N67" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="O67" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="P67" s="4" t="n">
+        <v>340</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q67" s="4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="341">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t xml:space="preserve">Q41064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">next</t>
   </si>
   <si>
     <t xml:space="preserve">Proverbios</t>
@@ -1192,11 +1189,11 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -2130,7 +2127,9 @@
       <c r="P19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -2179,8 +2178,8 @@
       <c r="P20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>109</v>
+      <c r="Q20" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -2203,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="n">
@@ -2225,10 +2224,10 @@
         <v>33.6192164666667</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="Q21" s="4"/>
     </row>
@@ -2243,7 +2242,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -2252,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="n">
@@ -2274,10 +2273,10 @@
         <v>35.228163</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="Q22" s="4"/>
     </row>
@@ -2292,7 +2291,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -2301,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="n">
@@ -2323,10 +2322,10 @@
         <v>35.5485861263889</v>
       </c>
       <c r="O23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>1</v>
@@ -2343,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>16</v>
@@ -2352,20 +2351,20 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="n">
         <v>66</v>
       </c>
       <c r="K24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>31.558286685034</v>
@@ -2374,10 +2373,10 @@
         <v>36.2484380798186</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="Q24" s="4"/>
     </row>
@@ -2392,7 +2391,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
@@ -2401,20 +2400,20 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="n">
         <v>52</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>32.340919558642</v>
@@ -2423,10 +2422,10 @@
         <v>35.4158287465021</v>
       </c>
       <c r="O25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="Q25" s="4"/>
     </row>
@@ -2441,7 +2440,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
@@ -2450,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="n">
@@ -2472,10 +2471,10 @@
         <v>35.2035639185185</v>
       </c>
       <c r="O26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="Q26" s="4"/>
     </row>
@@ -2490,7 +2489,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>16</v>
@@ -2499,20 +2498,20 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="n">
         <v>48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>31.5987830993464</v>
@@ -2521,12 +2520,14 @@
         <v>35.4612548551198</v>
       </c>
       <c r="O27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q27" s="4"/>
+      <c r="Q27" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -2539,7 +2540,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -2548,20 +2549,20 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>30.0115475244445</v>
@@ -2570,10 +2571,10 @@
         <v>36.9681489007407</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="Q28" s="4"/>
     </row>
@@ -2588,7 +2589,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
@@ -2597,20 +2598,20 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>31.9816348666667</v>
@@ -2619,10 +2620,10 @@
         <v>35.2501034333333</v>
       </c>
       <c r="O29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="Q29" s="4"/>
     </row>
@@ -2637,7 +2638,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>16</v>
@@ -2646,20 +2647,20 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>31.8152915888889</v>
@@ -2668,10 +2669,10 @@
         <v>33.3907050509259</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="4"/>
     </row>
@@ -2686,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>16</v>
@@ -2695,20 +2696,20 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>31.8051863706667</v>
@@ -2717,10 +2718,10 @@
         <v>35.0574446284444</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="4"/>
     </row>
@@ -2735,7 +2736,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>16</v>
@@ -2744,20 +2745,20 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>31.6259671166667</v>
@@ -2766,10 +2767,10 @@
         <v>35.2103703711111</v>
       </c>
       <c r="O32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="Q32" s="4"/>
     </row>
@@ -2784,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>16</v>
@@ -2793,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="n">
@@ -2806,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>36.6525328333333</v>
@@ -2815,10 +2816,10 @@
         <v>34.9298637666667</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="4"/>
     </row>
@@ -2833,7 +2834,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
@@ -2842,20 +2843,20 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="n">
         <v>7</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>32.0123840119048</v>
@@ -2864,10 +2865,10 @@
         <v>36.2378762579365</v>
       </c>
       <c r="O34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="Q34" s="4"/>
     </row>
@@ -2882,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -2891,20 +2892,20 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>30.02499748</v>
@@ -2913,12 +2914,14 @@
         <v>33.51317685</v>
       </c>
       <c r="O35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -2931,7 +2934,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -2940,20 +2943,20 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>31.8736</v>
@@ -2962,12 +2965,14 @@
         <v>35.749305</v>
       </c>
       <c r="O36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="4"/>
+      <c r="Q36" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -2980,7 +2985,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>16</v>
@@ -2989,20 +2994,20 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>30.7004767060606</v>
@@ -3011,12 +3016,14 @@
         <v>35.3679248191919</v>
       </c>
       <c r="O37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q37" s="4"/>
+      <c r="Q37" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -3029,7 +3036,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>16</v>
@@ -3038,20 +3045,20 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>30.7391216</v>
@@ -3060,12 +3067,14 @@
         <v>34.1192041</v>
       </c>
       <c r="O38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="P38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q38" s="4"/>
+      <c r="Q38" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -3078,7 +3087,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
@@ -3087,20 +3096,20 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>32.4563420913581</v>
@@ -3109,12 +3118,14 @@
         <v>34.6885989967078</v>
       </c>
       <c r="O39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q39" s="4"/>
+      <c r="Q39" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -3127,7 +3138,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
@@ -3136,20 +3147,20 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>31.2363364</v>
@@ -3158,10 +3169,10 @@
         <v>34.9578466</v>
       </c>
       <c r="O40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="Q40" s="4"/>
     </row>
@@ -3176,29 +3187,29 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>32.3601598061729</v>
@@ -3207,10 +3218,10 @@
         <v>35.0756762263374</v>
       </c>
       <c r="O41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -3227,29 +3238,29 @@
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>32.2966465</v>
@@ -3258,10 +3269,10 @@
         <v>34.6599276315789</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q42" s="4"/>
     </row>
@@ -3276,29 +3287,29 @@
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K43" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M43" s="3" t="n">
         <v>32.6406997192308</v>
@@ -3307,10 +3318,10 @@
         <v>35.0272764423077</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q43" s="4"/>
     </row>
@@ -3325,29 +3336,29 @@
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="n">
         <v>21</v>
       </c>
       <c r="K44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M44" s="3" t="n">
         <v>32.0573878642857</v>
@@ -3356,10 +3367,10 @@
         <v>35.3856338214286</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -3376,29 +3387,29 @@
         <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M45" s="3" t="n">
         <v>34.1861673694915</v>
@@ -3407,10 +3418,10 @@
         <v>30.4976653186441</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q45" s="4"/>
     </row>
@@ -3425,29 +3436,29 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M46" s="3" t="n">
         <v>35.780619652381</v>
@@ -3456,10 +3467,10 @@
         <v>24.4271275730159</v>
       </c>
       <c r="O46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P46" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="Q46" s="4"/>
     </row>
@@ -3474,29 +3485,29 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M47" s="3" t="n">
         <v>33.6480191111111</v>
@@ -3505,10 +3516,10 @@
         <v>31.5965783888889</v>
       </c>
       <c r="O47" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>1</v>
@@ -3525,29 +3536,29 @@
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M48" s="3" t="n">
         <v>35.8952308111111</v>
@@ -3556,10 +3567,10 @@
         <v>29.4401928555556</v>
       </c>
       <c r="O48" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>1</v>
@@ -3576,29 +3587,29 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M49" s="3" t="n">
         <v>31.0277102</v>
@@ -3607,10 +3618,10 @@
         <v>37.2690598</v>
       </c>
       <c r="O49" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="Q49" s="4"/>
     </row>
@@ -3625,29 +3636,29 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M50" s="3" t="n">
         <v>34.9773208333333</v>
@@ -3656,10 +3667,10 @@
         <v>25.5316944</v>
       </c>
       <c r="O50" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="Q50" s="4"/>
     </row>
@@ -3674,29 +3685,29 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M51" s="3" t="n">
         <v>37.7649163</v>
@@ -3705,10 +3716,10 @@
         <v>26.5137687</v>
       </c>
       <c r="O51" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="Q51" s="4"/>
     </row>
@@ -3723,29 +3734,29 @@
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M52" s="3" t="n">
         <v>35.5407103</v>
@@ -3754,10 +3765,10 @@
         <v>35.7952667</v>
       </c>
       <c r="O52" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="Q52" s="4"/>
     </row>
@@ -3772,29 +3783,29 @@
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M53" s="3" t="n">
         <v>38.033930725</v>
@@ -3803,10 +3814,10 @@
         <v>25.905193075</v>
       </c>
       <c r="O53" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="Q53" s="4"/>
     </row>
@@ -3821,35 +3832,35 @@
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O54" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="Q54" s="4"/>
     </row>
@@ -3864,29 +3875,29 @@
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M55" s="3" t="n">
         <v>39.77852525</v>
@@ -3895,10 +3906,10 @@
         <v>24.5566651</v>
       </c>
       <c r="O55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="Q55" s="4"/>
     </row>
@@ -3913,29 +3924,29 @@
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M56" s="3" t="n">
         <v>38.8302656777778</v>
@@ -3944,10 +3955,10 @@
         <v>27.4323937222222</v>
       </c>
       <c r="O56" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P56" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="Q56" s="4"/>
     </row>
@@ -3962,29 +3973,29 @@
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M57" s="3" t="n">
         <v>35.240117</v>
@@ -3993,10 +4004,10 @@
         <v>24.8092691</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q57" s="4"/>
     </row>
@@ -4011,35 +4022,35 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O58" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="Q58" s="4"/>
     </row>
@@ -4054,29 +4065,29 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M59" s="3" t="n">
         <v>30.6318454833334</v>
@@ -4085,10 +4096,10 @@
         <v>32.0784964763889</v>
       </c>
       <c r="O59" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="Q59" s="4"/>
     </row>
@@ -4103,35 +4114,35 @@
         <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O60" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P60" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="Q60" s="4"/>
     </row>
@@ -4146,29 +4157,29 @@
         <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>34.622887888889</v>
@@ -4177,10 +4188,10 @@
         <v>37.9289433703703</v>
       </c>
       <c r="O61" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="Q61" s="4"/>
     </row>
@@ -4195,29 +4206,29 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M62" s="3" t="n">
         <v>31.771666666667</v>
@@ -4226,10 +4237,10 @@
         <v>35.228611111111</v>
       </c>
       <c r="O62" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="Q62" s="4"/>
     </row>
@@ -4244,35 +4255,35 @@
         <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O63" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="P63" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="Q63" s="4"/>
     </row>
@@ -4287,35 +4298,35 @@
         <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O64" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="P64" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="Q64" s="4"/>
     </row>
@@ -4330,35 +4341,35 @@
         <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O65" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="Q65" s="4"/>
     </row>
@@ -4373,29 +4384,29 @@
         <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>26.820553</v>
@@ -4404,10 +4415,10 @@
         <v>30.802498</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q66" s="4"/>
     </row>
@@ -4422,29 +4433,29 @@
         <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="n">
         <v>22</v>
       </c>
       <c r="K67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="M67" s="3" t="n">
         <v>34.7078413805556</v>
@@ -4453,10 +4464,10 @@
         <v>33.5147325425926</v>
       </c>
       <c r="O67" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>1</v>
@@ -4475,7 +4486,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P67"/>
+  <autoFilter ref="B1:Q67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="346">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t xml:space="preserve">sexual_annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period_produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period_setting</t>
   </si>
   <si>
     <t xml:space="preserve">Génesis</t>
@@ -1187,13 +1202,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.8"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -1242,6 +1260,21 @@
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1254,29 +1287,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>32.6156867451613</v>
@@ -1285,14 +1318,15 @@
         <v>36.7930834290323</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -1305,29 +1339,29 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="n">
         <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>30.4699688976191</v>
@@ -1336,12 +1370,13 @@
         <v>33.8432804079365</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -1354,29 +1389,29 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="n">
         <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>30.5217654</v>
@@ -1385,12 +1420,13 @@
         <v>34.112561</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -1403,29 +1439,29 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>31.2216179928572</v>
@@ -1434,12 +1470,13 @@
         <v>34.8414332857143</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -1452,29 +1489,29 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="n">
         <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" s="3" t="n">
         <v>31.5061064931373</v>
@@ -1483,12 +1520,13 @@
         <v>35.735247453268</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1501,29 +1539,29 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>31.7040713934426</v>
@@ -1532,12 +1570,13 @@
         <v>34.9903732852459</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1550,29 +1589,29 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="n">
         <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>31.7295635169811</v>
@@ -1581,12 +1620,13 @@
         <v>35.467874809434</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1599,29 +1639,29 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>29.8573287</v>
@@ -1630,14 +1670,15 @@
         <v>33.6188508333333</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -1650,29 +1691,29 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="n">
         <v>31</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>31.5980145176471</v>
@@ -1681,12 +1722,13 @@
         <v>35.0461610117647</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -1699,29 +1741,29 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>32.2183292375</v>
@@ -1730,12 +1772,13 @@
         <v>35.26103851875</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -1748,29 +1791,29 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="n">
         <v>22</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>31.8670741222222</v>
@@ -1779,12 +1822,13 @@
         <v>35.1852309356481</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -1797,29 +1841,29 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="n">
         <v>25</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>31.9348416753968</v>
@@ -1828,12 +1872,13 @@
         <v>36.3334837740741</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1846,29 +1891,29 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="n">
         <v>29</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>32.0105521231884</v>
@@ -1877,12 +1922,13 @@
         <v>36.031745213285</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -1895,29 +1941,29 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="n">
         <v>36</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>32.0012473111111</v>
@@ -1926,12 +1972,13 @@
         <v>35.8507288237473</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1944,29 +1991,29 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="n">
         <v>10</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>32.320034525</v>
@@ -1975,12 +2022,13 @@
         <v>37.691306715</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1993,29 +2041,29 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>31.3170995516129</v>
@@ -2024,12 +2072,13 @@
         <v>37.0320123806452</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -2042,29 +2091,29 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="n">
         <v>10</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>29.276842025</v>
@@ -2073,12 +2122,13 @@
         <v>40.9689593</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -2091,29 +2141,29 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="n">
         <v>42</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>19.865082</v>
@@ -2122,14 +2172,15 @@
         <v>38.3640435</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -2142,29 +2193,29 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="n">
         <v>150</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>30.9532842802083</v>
@@ -2173,14 +2224,15 @@
         <v>35.4313175003472</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -2193,29 +2245,29 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="n">
         <v>31</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>29.9232731333333</v>
@@ -2224,12 +2276,13 @@
         <v>33.6192164666667</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -2242,29 +2295,29 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>32.0003456666667</v>
@@ -2273,12 +2326,13 @@
         <v>35.228163</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -2291,29 +2345,29 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>32.2361352458334</v>
@@ -2322,14 +2376,15 @@
         <v>35.5485861263889</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -2342,29 +2397,29 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="n">
         <v>66</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>31.558286685034</v>
@@ -2373,12 +2428,13 @@
         <v>36.2484380798186</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -2391,29 +2447,29 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="n">
         <v>52</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>32.340919558642</v>
@@ -2422,12 +2478,13 @@
         <v>35.4158287465021</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -2440,29 +2497,29 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>31.7260940111112</v>
@@ -2471,12 +2528,13 @@
         <v>35.2035639185185</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -2489,29 +2547,29 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="n">
         <v>48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>31.5987830993464</v>
@@ -2520,14 +2578,15 @@
         <v>35.4612548551198</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -2540,29 +2599,29 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>30.0115475244445</v>
@@ -2571,12 +2630,13 @@
         <v>36.9681489007407</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -2589,29 +2649,29 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>31.9816348666667</v>
@@ -2620,12 +2680,13 @@
         <v>35.2501034333333</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -2638,29 +2699,29 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>31.8152915888889</v>
@@ -2669,12 +2730,13 @@
         <v>33.3907050509259</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -2687,29 +2749,29 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>31.8051863706667</v>
@@ -2718,12 +2780,13 @@
         <v>35.0574446284444</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -2736,29 +2799,29 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>31.6259671166667</v>
@@ -2767,12 +2830,13 @@
         <v>35.2103703711111</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -2785,29 +2849,29 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>36.6525328333333</v>
@@ -2816,12 +2880,13 @@
         <v>34.9298637666667</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -2834,29 +2899,29 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="n">
         <v>7</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>32.0123840119048</v>
@@ -2865,12 +2930,13 @@
         <v>36.2378762579365</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -2883,29 +2949,29 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>30.02499748</v>
@@ -2914,14 +2980,15 @@
         <v>33.51317685</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -2934,29 +3001,29 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>31.8736</v>
@@ -2965,14 +3032,15 @@
         <v>35.749305</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -2985,29 +3053,29 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>30.7004767060606</v>
@@ -3016,14 +3084,15 @@
         <v>35.3679248191919</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -3036,29 +3105,29 @@
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>30.7391216</v>
@@ -3067,14 +3136,15 @@
         <v>34.1192041</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -3087,29 +3157,29 @@
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>32.4563420913581</v>
@@ -3118,14 +3188,15 @@
         <v>34.6885989967078</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -3138,29 +3209,29 @@
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>31.2363364</v>
@@ -3169,12 +3240,13 @@
         <v>34.9578466</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -3187,29 +3259,29 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>32.3601598061729</v>
@@ -3218,14 +3290,15 @@
         <v>35.0756762263374</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
@@ -3238,29 +3311,29 @@
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>32.2966465</v>
@@ -3269,12 +3342,13 @@
         <v>34.6599276315789</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -3287,29 +3361,29 @@
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M43" s="3" t="n">
         <v>32.6406997192308</v>
@@ -3318,12 +3392,13 @@
         <v>35.0272764423077</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -3336,29 +3411,29 @@
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="n">
         <v>21</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M44" s="3" t="n">
         <v>32.0573878642857</v>
@@ -3367,14 +3442,15 @@
         <v>35.3856338214286</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
@@ -3387,29 +3463,29 @@
         <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M45" s="3" t="n">
         <v>34.1861673694915</v>
@@ -3418,12 +3494,13 @@
         <v>30.4976653186441</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -3436,29 +3513,29 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M46" s="3" t="n">
         <v>35.780619652381</v>
@@ -3467,12 +3544,13 @@
         <v>24.4271275730159</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -3485,29 +3563,29 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M47" s="3" t="n">
         <v>33.6480191111111</v>
@@ -3516,14 +3594,15 @@
         <v>31.5965783888889</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -3536,29 +3615,29 @@
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M48" s="3" t="n">
         <v>35.8952308111111</v>
@@ -3567,14 +3646,15 @@
         <v>29.4401928555556</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -3587,29 +3667,29 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M49" s="3" t="n">
         <v>31.0277102</v>
@@ -3618,12 +3698,13 @@
         <v>37.2690598</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -3636,29 +3717,29 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M50" s="3" t="n">
         <v>34.9773208333333</v>
@@ -3667,12 +3748,13 @@
         <v>25.5316944</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -3685,29 +3767,29 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M51" s="3" t="n">
         <v>37.7649163</v>
@@ -3716,12 +3798,13 @@
         <v>26.5137687</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -3734,29 +3817,29 @@
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M52" s="3" t="n">
         <v>35.5407103</v>
@@ -3765,12 +3848,13 @@
         <v>35.7952667</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -3783,29 +3867,29 @@
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M53" s="3" t="n">
         <v>38.033930725</v>
@@ -3814,12 +3898,13 @@
         <v>25.905193075</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -3832,37 +3917,38 @@
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -3875,29 +3961,29 @@
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M55" s="3" t="n">
         <v>39.77852525</v>
@@ -3906,12 +3992,13 @@
         <v>24.5566651</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -3924,29 +4011,29 @@
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M56" s="3" t="n">
         <v>38.8302656777778</v>
@@ -3955,12 +4042,13 @@
         <v>27.4323937222222</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -3973,29 +4061,29 @@
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M57" s="3" t="n">
         <v>35.240117</v>
@@ -4004,12 +4092,13 @@
         <v>24.8092691</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -4022,37 +4111,38 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -4065,29 +4155,29 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M59" s="3" t="n">
         <v>30.6318454833334</v>
@@ -4096,12 +4186,13 @@
         <v>32.0784964763889</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -4114,37 +4205,38 @@
         <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -4157,29 +4249,29 @@
         <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>34.622887888889</v>
@@ -4188,12 +4280,13 @@
         <v>37.9289433703703</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -4206,29 +4299,29 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M62" s="3" t="n">
         <v>31.771666666667</v>
@@ -4237,12 +4330,13 @@
         <v>35.228611111111</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -4255,37 +4349,38 @@
         <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -4298,37 +4393,38 @@
         <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -4341,37 +4437,38 @@
         <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -4384,29 +4481,29 @@
         <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>26.820553</v>
@@ -4415,12 +4512,13 @@
         <v>30.802498</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -4433,29 +4531,29 @@
         <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="n">
         <v>22</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M67" s="3" t="n">
         <v>34.7078413805556</v>
@@ -4464,14 +4562,15 @@
         <v>33.5147325425926</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="R67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -4486,7 +4585,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Q67"/>
+  <autoFilter ref="B1:P67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="354">
   <si>
     <t xml:space="preserve">bible</t>
   </si>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">sexual_annotation</t>
   </si>
   <si>
-    <t xml:space="preserve">part</t>
+    <t xml:space="preserve">division</t>
   </si>
   <si>
     <t xml:space="preserve">author</t>
@@ -108,6 +108,12 @@
     <t xml:space="preserve">Q9184</t>
   </si>
   <si>
+    <t xml:space="preserve">Pentateuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hebrew</t>
+  </si>
+  <si>
     <t xml:space="preserve">Éxodo</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
     <t xml:space="preserve">Q47680</t>
   </si>
   <si>
+    <t xml:space="preserve">Historical</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jueces</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
     <t xml:space="preserve">Q4577</t>
   </si>
   <si>
+    <t xml:space="preserve">Wisdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmos</t>
   </si>
   <si>
@@ -435,6 +447,9 @@
     <t xml:space="preserve">Q131458</t>
   </si>
   <si>
+    <t xml:space="preserve">Prophetic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeremías</t>
   </si>
   <si>
@@ -690,6 +705,12 @@
     <t xml:space="preserve">Q392302</t>
   </si>
   <si>
+    <t xml:space="preserve">Gospel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marcos</t>
   </si>
   <si>
@@ -754,6 +775,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q48203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letters</t>
   </si>
   <si>
     <t xml:space="preserve">1 Corintios</t>
@@ -1202,18 +1226,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:AMJ71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.77"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1304,9 @@
       <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
@@ -1326,9 +1356,14 @@
       <c r="Q2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -1348,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="n">
@@ -1370,15 +1405,20 @@
         <v>33.8432804079365</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -1389,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -1398,20 +1438,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="n">
         <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>30.5217654</v>
@@ -1420,15 +1460,20 @@
         <v>34.112561</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -1439,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -1448,20 +1493,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="n">
         <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>31.2216179928572</v>
@@ -1470,15 +1515,20 @@
         <v>34.8414332857143</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -1489,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -1498,20 +1548,20 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="n">
         <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="3" t="n">
         <v>31.5061064931373</v>
@@ -1520,13 +1570,18 @@
         <v>35.735247453268</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1539,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -1548,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="n">
@@ -1570,13 +1625,18 @@
         <v>34.9903732852459</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1589,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -1598,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="n">
@@ -1620,13 +1680,18 @@
         <v>35.467874809434</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1639,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -1648,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="n">
@@ -1670,15 +1735,20 @@
         <v>33.6188508333333</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -1691,7 +1761,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -1700,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="n">
@@ -1722,13 +1792,18 @@
         <v>35.0461610117647</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -1741,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -1750,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="n">
@@ -1772,13 +1847,18 @@
         <v>35.26103851875</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -1791,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -1800,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="n">
@@ -1822,13 +1902,18 @@
         <v>35.1852309356481</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -1841,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -1850,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="n">
@@ -1872,13 +1957,18 @@
         <v>36.3334837740741</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1891,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -1900,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="n">
@@ -1922,13 +2012,18 @@
         <v>36.031745213285</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -1941,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -1950,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="n">
@@ -1972,13 +2067,18 @@
         <v>35.8507288237473</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1991,7 +2091,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
@@ -2000,10 +2100,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="n">
@@ -2022,13 +2122,18 @@
         <v>37.691306715</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -2041,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -2050,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="n">
@@ -2072,13 +2177,18 @@
         <v>37.0320123806452</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -2091,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -2100,10 +2210,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="n">
@@ -2122,13 +2232,18 @@
         <v>40.9689593</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -2141,7 +2256,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -2150,20 +2265,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="n">
         <v>42</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>19.865082</v>
@@ -2172,15 +2287,20 @@
         <v>38.3640435</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="4"/>
+      <c r="R19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -2193,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -2202,20 +2322,20 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="n">
         <v>150</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>30.9532842802083</v>
@@ -2224,15 +2344,20 @@
         <v>35.4313175003472</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -2245,7 +2370,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -2254,20 +2379,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="n">
         <v>31</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>29.9232731333333</v>
@@ -2276,13 +2401,18 @@
         <v>33.6192164666667</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -2295,7 +2425,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -2304,20 +2434,20 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>32.0003456666667</v>
@@ -2326,13 +2456,18 @@
         <v>35.228163</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -2345,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -2354,20 +2489,20 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>32.2361352458334</v>
@@ -2376,15 +2511,20 @@
         <v>35.5485861263889</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R23" s="4"/>
+      <c r="R23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -2397,7 +2537,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -2406,20 +2546,20 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="n">
         <v>66</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>31.558286685034</v>
@@ -2428,13 +2568,18 @@
         <v>36.2484380798186</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -2447,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
@@ -2456,20 +2601,20 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="n">
         <v>52</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>32.340919558642</v>
@@ -2478,13 +2623,18 @@
         <v>35.4158287465021</v>
       </c>
       <c r="O25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="T25" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -2497,7 +2647,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
@@ -2506,20 +2656,20 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>31.7260940111112</v>
@@ -2528,13 +2678,18 @@
         <v>35.2035639185185</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="R26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -2547,7 +2702,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -2556,20 +2711,20 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="n">
         <v>48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>31.5987830993464</v>
@@ -2578,15 +2733,20 @@
         <v>35.4612548551198</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -2599,7 +2759,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
@@ -2608,20 +2768,20 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="n">
         <v>12</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>30.0115475244445</v>
@@ -2630,13 +2790,18 @@
         <v>36.9681489007407</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -2649,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -2658,20 +2823,20 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>31.9816348666667</v>
@@ -2680,13 +2845,18 @@
         <v>35.2501034333333</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="R29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -2699,7 +2869,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -2708,20 +2878,20 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>31.8152915888889</v>
@@ -2730,13 +2900,18 @@
         <v>33.3907050509259</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="R30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -2749,7 +2924,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
@@ -2758,20 +2933,20 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>31.8051863706667</v>
@@ -2780,13 +2955,18 @@
         <v>35.0574446284444</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="R31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -2799,7 +2979,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -2808,20 +2988,20 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>31.6259671166667</v>
@@ -2830,13 +3010,18 @@
         <v>35.2103703711111</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -2849,7 +3034,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -2858,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="n">
@@ -2871,7 +3056,7 @@
         <v>24</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>36.6525328333333</v>
@@ -2880,13 +3065,18 @@
         <v>34.9298637666667</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="R33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -2899,7 +3089,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
@@ -2908,20 +3098,20 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="n">
         <v>7</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>32.0123840119048</v>
@@ -2930,13 +3120,18 @@
         <v>36.2378762579365</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+      <c r="R34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -2949,7 +3144,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -2958,20 +3153,20 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>30.02499748</v>
@@ -2980,15 +3175,20 @@
         <v>33.51317685</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R35" s="4"/>
+      <c r="R35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -3001,7 +3201,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
@@ -3010,20 +3210,20 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>31.8736</v>
@@ -3032,15 +3232,20 @@
         <v>35.749305</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R36" s="4"/>
+      <c r="R36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -3053,7 +3258,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
@@ -3062,20 +3267,20 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>30.7004767060606</v>
@@ -3084,15 +3289,20 @@
         <v>35.3679248191919</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R37" s="4"/>
+      <c r="R37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -3105,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -3114,20 +3324,20 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>30.7391216</v>
@@ -3136,15 +3346,20 @@
         <v>34.1192041</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R38" s="4"/>
+      <c r="R38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -3157,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
@@ -3166,20 +3381,20 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="n">
         <v>14</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>32.4563420913581</v>
@@ -3188,15 +3403,20 @@
         <v>34.6885989967078</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R39" s="4"/>
+      <c r="R39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -3209,7 +3429,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
@@ -3218,20 +3438,20 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>31.2363364</v>
@@ -3240,13 +3460,18 @@
         <v>34.9578466</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
+      <c r="R40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -3259,29 +3484,29 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>32.3601598061729</v>
@@ -3290,15 +3515,20 @@
         <v>35.0756762263374</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R41" s="4"/>
+      <c r="R41" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
@@ -3311,29 +3541,29 @@
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>32.2966465</v>
@@ -3342,13 +3572,18 @@
         <v>34.6599276315789</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+      <c r="R42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -3361,29 +3596,29 @@
         <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="n">
         <v>24</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M43" s="3" t="n">
         <v>32.6406997192308</v>
@@ -3392,13 +3627,18 @@
         <v>35.0272764423077</v>
       </c>
       <c r="O43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+      <c r="T43" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -3411,29 +3651,29 @@
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="n">
         <v>21</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M44" s="3" t="n">
         <v>32.0573878642857</v>
@@ -3442,15 +3682,20 @@
         <v>35.3856338214286</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R44" s="4"/>
+      <c r="R44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
@@ -3463,29 +3708,29 @@
         <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="n">
         <v>28</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M45" s="3" t="n">
         <v>34.1861673694915</v>
@@ -3494,13 +3739,18 @@
         <v>30.4976653186441</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+      <c r="R45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -3513,29 +3763,29 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M46" s="3" t="n">
         <v>35.780619652381</v>
@@ -3544,13 +3794,18 @@
         <v>24.4271275730159</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="R46" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -3563,29 +3818,29 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="n">
         <v>16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M47" s="3" t="n">
         <v>33.6480191111111</v>
@@ -3594,15 +3849,20 @@
         <v>31.5965783888889</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R47" s="4"/>
+      <c r="R47" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -3615,29 +3875,29 @@
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M48" s="3" t="n">
         <v>35.8952308111111</v>
@@ -3646,15 +3906,20 @@
         <v>29.4401928555556</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R48" s="4"/>
+      <c r="R48" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -3667,29 +3932,29 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M49" s="3" t="n">
         <v>31.0277102</v>
@@ -3698,13 +3963,18 @@
         <v>37.2690598</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
+      <c r="R49" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -3717,29 +3987,29 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M50" s="3" t="n">
         <v>34.9773208333333</v>
@@ -3748,13 +4018,18 @@
         <v>25.5316944</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
+      <c r="R50" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -3767,29 +4042,29 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M51" s="3" t="n">
         <v>37.7649163</v>
@@ -3798,13 +4073,18 @@
         <v>26.5137687</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
+      <c r="R51" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -3817,29 +4097,29 @@
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M52" s="3" t="n">
         <v>35.5407103</v>
@@ -3848,13 +4128,18 @@
         <v>35.7952667</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
+      <c r="R52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -3867,29 +4152,29 @@
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M53" s="3" t="n">
         <v>38.033930725</v>
@@ -3898,13 +4183,18 @@
         <v>25.905193075</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
+      <c r="R53" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -3917,38 +4207,43 @@
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -3961,29 +4256,29 @@
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M55" s="3" t="n">
         <v>39.77852525</v>
@@ -3992,13 +4287,18 @@
         <v>24.5566651</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
+      <c r="R55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -4011,29 +4311,29 @@
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M56" s="3" t="n">
         <v>38.8302656777778</v>
@@ -4042,13 +4342,18 @@
         <v>27.4323937222222</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="R56" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T56" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -4061,29 +4366,29 @@
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M57" s="3" t="n">
         <v>35.240117</v>
@@ -4092,13 +4397,18 @@
         <v>24.8092691</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
+      <c r="R57" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -4111,38 +4421,43 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
+      <c r="R58" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -4155,29 +4470,29 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="n">
         <v>13</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M59" s="3" t="n">
         <v>30.6318454833334</v>
@@ -4186,13 +4501,18 @@
         <v>32.0784964763889</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="R59" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -4205,38 +4525,43 @@
         <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
+      <c r="R60" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T60" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -4249,29 +4574,29 @@
         <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>34.622887888889</v>
@@ -4280,13 +4605,18 @@
         <v>37.9289433703703</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
+      <c r="R61" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T61" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -4299,29 +4629,29 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M62" s="3" t="n">
         <v>31.771666666667</v>
@@ -4330,13 +4660,18 @@
         <v>35.228611111111</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
+      <c r="R62" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T62" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -4349,38 +4684,43 @@
         <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
+      <c r="R63" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -4393,38 +4733,43 @@
         <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
+      <c r="R64" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T64" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -4437,38 +4782,43 @@
         <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+      <c r="R65" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T65" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -4481,29 +4831,29 @@
         <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>26.820553</v>
@@ -4512,15 +4862,20 @@
         <v>30.802498</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R66" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T66" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>65</v>
       </c>
@@ -4531,29 +4886,29 @@
         <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="n">
         <v>22</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M67" s="3" t="n">
         <v>34.7078413805556</v>
@@ -4562,15 +4917,20 @@
         <v>33.5147325425926</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R67" s="4"/>
+      <c r="R67" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="T67" s="0" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -4585,7 +4945,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P67"/>
+  <autoFilter ref="B1:Q67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">genre</t>
   </si>
   <si>
-    <t xml:space="preserve">Genre-multilabel</t>
+    <t xml:space="preserve">genre-multilabel</t>
   </si>
   <si>
     <t xml:space="preserve">latitude</t>
@@ -1229,14 +1229,14 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.77"/>
@@ -4945,7 +4945,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Q67"/>
+  <autoFilter ref="B1:P67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1229,14 +1229,14 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+      <selection pane="bottomRight" activeCell="J75" activeCellId="0" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.77"/>
@@ -4945,7 +4945,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P67"/>
+  <autoFilter ref="B1:Q67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1229,14 +1229,14 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
-      <selection pane="bottomRight" activeCell="J75" activeCellId="0" sqref="J75"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="Q12" activeCellId="0" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.77"/>
@@ -1797,7 +1797,9 @@
       <c r="P10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R10" s="4" t="s">
         <v>55</v>
       </c>
@@ -1852,7 +1854,9 @@
       <c r="P11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R11" s="4" t="s">
         <v>55</v>
       </c>
@@ -4945,7 +4949,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Q67"/>
+  <autoFilter ref="B1:P67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1229,14 +1229,14 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="Q12" activeCellId="0" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="Q45" activeCellId="0" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.77"/>
@@ -3803,7 +3803,9 @@
       <c r="P46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R46" s="4" t="s">
         <v>250</v>
       </c>
@@ -4949,7 +4951,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P67"/>
+  <autoFilter ref="B1:Q67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/documentation/books.xlsx
+++ b/documentation/books.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$P$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$Q$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$1:$O$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1229,14 +1229,14 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
-      <selection pane="bottomRight" activeCell="Q45" activeCellId="0" sqref="Q45"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.77"/>
@@ -3974,7 +3974,9 @@
       <c r="P49" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q49" s="4"/>
+      <c r="Q49" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R49" s="4" t="s">
         <v>250</v>
       </c>
@@ -4951,7 +4953,7 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Q67"/>
+  <autoFilter ref="B1:P67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
